--- a/data/IOM DTM Mosul Crisis Dataset - formal camps with general infrastructure link.xlsx
+++ b/data/IOM DTM Mosul Crisis Dataset - formal camps with general infrastructure link.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericboucher/Documents/GitHub/unicef-innovation-settlement-monitoring/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA482A3D-EFB6-1543-B95F-42B69AC94B7E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8D9F01-7DB1-AC4E-B8E2-35BF5B8CB2DA}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="-1160" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IDPs" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Returnees" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDPs!$A$1:$T$115</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">IDPs!$A$1:$N$199</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="207">
   <si>
     <t>ReportingDate</t>
   </si>
@@ -240,24 +240,9 @@
     <t>LocationType</t>
   </si>
   <si>
-    <t>Governorate of Origin</t>
-  </si>
-  <si>
-    <t>Distrit of Origin</t>
-  </si>
-  <si>
-    <t>Sub district of Origin</t>
-  </si>
-  <si>
     <t>Ibrahim Alkhalil Village</t>
   </si>
   <si>
-    <t>Formal Camps</t>
-  </si>
-  <si>
-    <t>Emergency Site</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -294,9 +279,6 @@
     <t>Dibaga</t>
   </si>
   <si>
-    <t>Gwyer</t>
-  </si>
-  <si>
     <t>Hay Al Arabi</t>
   </si>
   <si>
@@ -453,24 +435,12 @@
     <t>https://reliefweb.int/map/iraq/iraq-hasansham-u3-camp-general-infrastructure-updated-10-may-2017</t>
   </si>
   <si>
-    <t>Al- Muhalabiya</t>
-  </si>
-  <si>
     <t>Salah al-Din</t>
   </si>
   <si>
     <t>Tikrit</t>
   </si>
   <si>
-    <t>Telafar</t>
-  </si>
-  <si>
-    <t>Hatra</t>
-  </si>
-  <si>
-    <t>Markaz Telafar</t>
-  </si>
-  <si>
     <t>Hasansham M2 (former Khazer M2)</t>
   </si>
   <si>
@@ -492,9 +462,6 @@
     <t>Qayyarah Jad’ah 2 camp</t>
   </si>
   <si>
-    <t>Altal</t>
-  </si>
-  <si>
     <t>Qayyarah Jad’ah 3 Camp</t>
   </si>
   <si>
@@ -513,9 +480,6 @@
     <t>Al-Rasheed</t>
   </si>
   <si>
-    <t>-Dora Center(Dora-Asia camp)-</t>
-  </si>
-  <si>
     <t>Ramadi</t>
   </si>
   <si>
@@ -570,9 +534,6 @@
     <t>Nahrawan</t>
   </si>
   <si>
-    <t>https://reliefweb.int/map/iraq/iraq-khazer-m1-camp-general-infrastructure-updated-18-january-2018</t>
-  </si>
-  <si>
     <t>Al Jameaa Camp</t>
   </si>
   <si>
@@ -582,21 +543,12 @@
     <t>Uwayrij Camp</t>
   </si>
   <si>
-    <t>https://reliefweb.int/map/iraq/iraq-hasansham-u3-camp-general-infrastructure-updated-18-january-2018</t>
-  </si>
-  <si>
-    <t>https://reliefweb.int/map/iraq/iraq-hasansham-m2-camp-tent-condition-updated-26-january-2017</t>
-  </si>
-  <si>
     <t>https://reliefweb.int/map/iraq/iraq-mamilian-camp-general-infrastructure-updated-16-may-2017</t>
   </si>
   <si>
     <t>http://www.reachresourcecentre.info/system/files/resource-documents/reach_irq_factsheet_nabi_sheit_camp_profile_dec2016.pdf</t>
   </si>
   <si>
-    <t>https://reliefweb.int/map/iraq/iraq-nargizlia-1-2-camp-general-infrastructure-updated-6-january-2017</t>
-  </si>
-  <si>
     <t>http://www.reachresourcecentre.info/system/files/resource-documents/reach_irq_map_idp_uwarij_15feb2018.pdf</t>
   </si>
   <si>
@@ -609,15 +561,6 @@
     <t>Alahel Camp</t>
   </si>
   <si>
-    <t>Hammam al-Aliel 1 camp</t>
-  </si>
-  <si>
-    <t>https://reliefweb.int/map/iraq/iraq-hamam-al-alil-1-camp-general-infrastructure-updated-28-may-2017</t>
-  </si>
-  <si>
-    <t>-Check Point 75(Al-Rasheed-Khaimat Al Iraq)Camp-</t>
-  </si>
-  <si>
     <t>Chamakor camp</t>
   </si>
   <si>
@@ -666,12 +609,6 @@
     <t>As Salamiyah 2 camp</t>
   </si>
   <si>
-    <t>Al-Ba'aj</t>
-  </si>
-  <si>
-    <t>Markaz Al-Ba'aj</t>
-  </si>
-  <si>
     <t>https://reliefweb.int/sites/reliefweb.int/files/resources/reach_irq_map_idp_assalamiyah_2_overview_11june2017.pdf</t>
   </si>
   <si>
@@ -697,13 +634,25 @@
   </si>
   <si>
     <t>https://reliefweb.int/map/iraq/iraq-erbil-governorate-baharka-camp-general-infrastructure-updated-18-january-2017</t>
+  </si>
+  <si>
+    <t>google_maps_link</t>
+  </si>
+  <si>
+    <t>bing_maps_link</t>
+  </si>
+  <si>
+    <t>Al-Rasheed-Khaimat Al Iraq Camp</t>
+  </si>
+  <si>
+    <t>Dora-Asia camp</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -713,6 +662,12 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -746,16 +701,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1071,13 +1030,13 @@
   <sheetPr>
     <tabColor rgb="FF4F81BD"/>
   </sheetPr>
-  <dimension ref="A1:V270"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1090,21 +1049,14 @@
     <col min="7" max="7" width="27.83203125" customWidth="1"/>
     <col min="8" max="8" width="39.83203125" customWidth="1"/>
     <col min="9" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" customWidth="1"/>
-    <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="19.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="19" width="19.33203125" customWidth="1"/>
-    <col min="20" max="20" width="16.1640625" customWidth="1"/>
-    <col min="21" max="21" width="103.83203125" customWidth="1"/>
-    <col min="22" max="26" width="8.83203125" customWidth="1"/>
+    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="12" max="12" width="103.83203125" customWidth="1"/>
+    <col min="13" max="13" width="32.83203125" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="15" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1136,401 +1088,313 @@
         <v>7</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="M1" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>42789</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>42675</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="F2">
+        <v>2307082</v>
       </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="I2">
-        <v>36.490310000000001</v>
+        <v>33.311239010000001</v>
       </c>
       <c r="J2">
-        <v>43.507689999999997</v>
-      </c>
-      <c r="K2">
+        <v>44.315817180000003</v>
+      </c>
+      <c r="M2" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I2,",",J2)</f>
+        <v>https://www.google.com/maps/?q=33.31123901,44.31581718</v>
+      </c>
+      <c r="N2" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I2,",",J2)</f>
+        <v>https://www.bing.com/maps/?q=33.31123901,44.31581718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>42789</v>
+      </c>
+      <c r="B3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" t="s">
         <v>119</v>
       </c>
-      <c r="L2" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2">
-        <v>119</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>42675</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="F3">
-        <v>2706108</v>
+        <v>2307053</v>
       </c>
       <c r="G3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="I3">
-        <v>35.744711000000002</v>
+        <v>33.2254577</v>
       </c>
       <c r="J3">
-        <v>43.267578</v>
-      </c>
-      <c r="K3">
-        <v>935</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3">
-        <v>935</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="U3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>44.368807259999997</v>
+      </c>
+      <c r="M3" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I3,",",J3)</f>
+        <v>https://www.google.com/maps/?q=33.2254577,44.36880726</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I3,",",J3)</f>
+        <v>https://www.bing.com/maps/?q=33.2254577,44.36880726</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>42675</v>
+        <v>42915</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="F4">
-        <v>2105080</v>
+        <v>2302072</v>
       </c>
       <c r="G4" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="I4">
-        <v>33.134210000000003</v>
+        <v>33.472742433999997</v>
       </c>
       <c r="J4">
-        <v>44.004910000000002</v>
-      </c>
-      <c r="K4">
-        <v>74</v>
+        <v>44.3829206407</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
-      </c>
-      <c r="M4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4">
-        <v>74</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="U4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="M4" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I4,",",J4)</f>
+        <v>https://www.google.com/maps/?q=33.472742434,44.3829206407</v>
+      </c>
+      <c r="N4" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I4,",",J4)</f>
+        <v>https://www.bing.com/maps/?q=33.472742434,44.3829206407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>42675</v>
+        <v>42915</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>168</v>
       </c>
       <c r="F5">
-        <v>2703019</v>
+        <v>2308034</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="I5">
-        <v>36.308070000000001</v>
+        <v>33.36313552</v>
       </c>
       <c r="J5">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K5">
-        <v>260</v>
+        <v>44.662262859999998</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5">
-        <v>260</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="U5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="M5" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I5,",",J5)</f>
+        <v>https://www.google.com/maps/?q=33.36313552,44.66226286</v>
+      </c>
+      <c r="N5" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I5,",",J5)</f>
+        <v>https://www.bing.com/maps/?q=33.36313552,44.66226286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>42675</v>
+        <v>42915</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>150</v>
+      </c>
+      <c r="F6">
+        <v>2309018</v>
       </c>
       <c r="G6" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="I6">
-        <v>36.490310000000001</v>
+        <v>33.129363859999998</v>
       </c>
       <c r="J6">
-        <v>43.507689999999997</v>
-      </c>
-      <c r="K6">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6">
-        <v>24</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>44.3585688</v>
+      </c>
+      <c r="M6" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I6,",",J6)</f>
+        <v>https://www.google.com/maps/?q=33.12936386,44.3585688</v>
+      </c>
+      <c r="N6" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I6,",",J6)</f>
+        <v>https://www.bing.com/maps/?q=33.12936386,44.3585688</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
       <c r="F7">
-        <v>2703016</v>
+        <v>2301005</v>
       </c>
       <c r="G7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>177</v>
       </c>
       <c r="I7">
-        <v>36.490310000000001</v>
+        <v>33.290997840000003</v>
       </c>
       <c r="J7">
-        <v>43.507689999999997</v>
-      </c>
-      <c r="K7">
-        <v>420</v>
-      </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q7">
-        <v>420</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="U7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44.110346610000001</v>
+      </c>
+      <c r="M7" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I7,",",J7)</f>
+        <v>https://www.google.com/maps/?q=33.29099784,44.11034661</v>
+      </c>
+      <c r="N7" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I7,",",J7)</f>
+        <v>https://www.bing.com/maps/?q=33.29099784,44.11034661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>42789</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F8">
-        <v>2706108</v>
+        <v>2105082</v>
       </c>
       <c r="G8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="I8">
-        <v>35.744711000000002</v>
+        <v>33.145969999999998</v>
       </c>
       <c r="J8">
-        <v>43.267578</v>
-      </c>
-      <c r="K8">
-        <v>330</v>
+        <v>43.844349999999999</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" t="s">
-        <v>19</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8">
-        <v>330</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="U8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+      <c r="M8" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I8,",",J8)</f>
+        <v>https://www.google.com/maps/?q=33.14597,43.84435</v>
+      </c>
+      <c r="N8" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I8,",",J8)</f>
+        <v>https://www.bing.com/maps/?q=33.14597,43.84435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
         <v>18</v>
@@ -1539,54 +1403,38 @@
         <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9">
-        <v>2703019</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="I9">
-        <v>36.308070000000001</v>
+        <v>36.160082000000003</v>
       </c>
       <c r="J9">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K9">
-        <v>763</v>
+        <v>43.328229999999998</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
-      </c>
-      <c r="M9" t="s">
-        <v>19</v>
-      </c>
-      <c r="N9" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q9">
-        <v>763</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="M9" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I9,",",J9)</f>
+        <v>https://www.google.com/maps/?q=36.160082,43.32823</v>
+      </c>
+      <c r="N9" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I9,",",J9)</f>
+        <v>https://www.bing.com/maps/?q=36.160082,43.32823</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -1595,157 +1443,116 @@
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10">
-        <v>2703016</v>
+        <v>26</v>
       </c>
       <c r="G10" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10">
+        <v>36.158603999999997</v>
+      </c>
+      <c r="J10">
+        <v>43.328099999999999</v>
+      </c>
+      <c r="L10" t="s">
+        <v>192</v>
+      </c>
+      <c r="M10" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I10,",",J10)</f>
+        <v>https://www.google.com/maps/?q=36.158604,43.3281</v>
+      </c>
+      <c r="N10" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I10,",",J10)</f>
+        <v>https://www.bing.com/maps/?q=36.158604,43.3281</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>42915</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>1202011</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I11">
+        <v>36.294339999999998</v>
+      </c>
+      <c r="J11">
+        <v>43.991990000000001</v>
+      </c>
+      <c r="L11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
         <v>95</v>
       </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10">
-        <v>36.490310000000001</v>
-      </c>
-      <c r="J10">
-        <v>43.507689999999997</v>
-      </c>
-      <c r="K10">
-        <v>66</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10">
-        <v>66</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="U10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11">
-        <v>2307084</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="H11" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11">
-        <v>33.317383450000001</v>
-      </c>
-      <c r="J11">
-        <v>44.291053179999999</v>
-      </c>
-      <c r="K11">
-        <v>10</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M11" t="s">
-        <v>19</v>
-      </c>
-      <c r="N11" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11">
-        <v>10</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="U11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F12">
-        <v>2703019</v>
+        <v>2105080</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I12">
-        <v>36.308070000000001</v>
+        <v>33.134210000000003</v>
       </c>
       <c r="J12">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K12">
-        <v>26</v>
+        <v>44.004910000000002</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N12" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12">
-        <v>26</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="U12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+      <c r="M12" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I12,",",J12)</f>
+        <v>https://www.google.com/maps/?q=33.13421,44.00491</v>
+      </c>
+      <c r="N12" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I12,",",J12)</f>
+        <v>https://www.bing.com/maps/?q=33.13421,44.00491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C13" t="s">
         <v>18</v>
@@ -1756,423 +1563,321 @@
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13">
-        <v>2703019</v>
-      </c>
       <c r="G13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="I13">
-        <v>36.308070000000001</v>
+        <v>36.250129000000001</v>
       </c>
       <c r="J13">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K13">
-        <v>4</v>
+        <v>43.524338999999998</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
-      </c>
-      <c r="M13" t="s">
-        <v>25</v>
-      </c>
-      <c r="N13" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="U13" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="M13" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I13,",",J13)</f>
+        <v>https://www.google.com/maps/?q=36.250129,43.524339</v>
+      </c>
+      <c r="N13" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I13,",",J13)</f>
+        <v>https://www.bing.com/maps/?q=36.250129,43.524339</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="F14">
-        <v>2703019</v>
+        <v>1204028</v>
       </c>
       <c r="G14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="I14">
-        <v>36.308070000000001</v>
+        <v>35.878900000000002</v>
       </c>
       <c r="J14">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K14">
-        <v>4273</v>
+        <v>43.802999999999997</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
-      </c>
-      <c r="N14" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14">
-        <v>4273</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="N14" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I14,",",J14)</f>
+        <v>https://www.bing.com/maps/?q=35.8789,43.803</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>42789</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="D15" t="s">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="F15">
-        <v>2105080</v>
+        <v>1204015</v>
       </c>
       <c r="G15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
       <c r="I15">
-        <v>33.134210000000003</v>
+        <v>35.882770000000001</v>
       </c>
       <c r="J15">
-        <v>44.004910000000002</v>
-      </c>
-      <c r="K15">
-        <v>38</v>
+        <v>43.808610000000002</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15">
-        <v>38</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="U15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>149</v>
+      </c>
+      <c r="M15" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I15,",",J15)</f>
+        <v>https://www.google.com/maps/?q=35.88277,43.80861</v>
+      </c>
+      <c r="N15" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I15,",",J15)</f>
+        <v>https://www.bing.com/maps/?q=35.88277,43.80861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>42789</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C16" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="F16">
-        <v>2105082</v>
+        <v>2307104</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H16" t="s">
-        <v>138</v>
+        <v>206</v>
       </c>
       <c r="I16">
-        <v>33.145969999999998</v>
+        <v>33.241079630000002</v>
       </c>
       <c r="J16">
-        <v>43.844349999999999</v>
-      </c>
-      <c r="K16">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q16">
-        <v>36</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="U16" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44.407775170000001</v>
+      </c>
+      <c r="M16" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I16,",",J16)</f>
+        <v>https://www.google.com/maps/?q=33.24107963,44.40777517</v>
+      </c>
+      <c r="N16" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I16,",",J16)</f>
+        <v>https://www.bing.com/maps/?q=33.24107963,44.40777517</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>42789</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>119</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="F17">
-        <v>2703020</v>
+        <v>2307144</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="I17">
-        <v>36.323039999999999</v>
+        <v>33.33100932</v>
       </c>
       <c r="J17">
-        <v>43.539499999999997</v>
-      </c>
-      <c r="K17">
-        <v>928</v>
-      </c>
-      <c r="L17" t="s">
-        <v>18</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17">
-        <v>928</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="U17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44.292915219999998</v>
+      </c>
+      <c r="M17" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I17,",",J17)</f>
+        <v>https://www.google.com/maps/?q=33.33100932,44.29291522</v>
+      </c>
+      <c r="N17" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I17,",",J17)</f>
+        <v>https://www.bing.com/maps/?q=33.33100932,44.29291522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>2703020</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>187</v>
       </c>
       <c r="I18">
-        <v>36.323039999999999</v>
+        <v>36.1616</v>
       </c>
       <c r="J18">
-        <v>43.539499999999997</v>
-      </c>
-      <c r="K18">
-        <v>457</v>
+        <v>43.231499999999997</v>
       </c>
       <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q18">
-        <v>457</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="U18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="M18" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I18,",",J18)</f>
+        <v>https://www.google.com/maps/?q=36.1616,43.2315</v>
+      </c>
+      <c r="N18" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I18,",",J18)</f>
+        <v>https://www.bing.com/maps/?q=36.1616,43.2315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>42789</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19">
-        <v>2706108</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="I19">
-        <v>35.744711000000002</v>
+        <v>36.335090000000001</v>
       </c>
       <c r="J19">
-        <v>43.267578</v>
-      </c>
-      <c r="K19">
-        <v>9</v>
+        <v>43.547687000000003</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
-        <v>19</v>
-      </c>
-      <c r="N19" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q19">
-        <v>9</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="U19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+      <c r="M19" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I19,",",J19)</f>
+        <v>https://www.google.com/maps/?q=36.33509,43.547687</v>
+      </c>
+      <c r="N19" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I19,",",J19)</f>
+        <v>https://www.bing.com/maps/?q=36.33509,43.547687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C20" t="s">
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>2706108</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="I20">
-        <v>35.744711000000002</v>
+        <v>36.308950000000003</v>
       </c>
       <c r="J20">
-        <v>43.267578</v>
-      </c>
-      <c r="K20">
-        <v>214</v>
+        <v>43.526985000000003</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
-      </c>
-      <c r="M20" t="s">
-        <v>19</v>
-      </c>
-      <c r="N20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20">
-        <v>214</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="U20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="M20" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I20,",",J20)</f>
+        <v>https://www.google.com/maps/?q=36.30895,43.526985</v>
+      </c>
+      <c r="N20" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I20,",",J20)</f>
+        <v>https://www.bing.com/maps/?q=36.30895,43.526985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>42789</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C21" t="s">
         <v>18</v>
@@ -2184,572 +1889,465 @@
         <v>30</v>
       </c>
       <c r="F21">
-        <v>2703016</v>
+        <v>2703020</v>
       </c>
       <c r="G21" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="I21">
-        <v>36.490310000000001</v>
+        <v>36.323039999999999</v>
       </c>
       <c r="J21">
-        <v>43.507689999999997</v>
-      </c>
-      <c r="K21">
-        <v>60</v>
+        <v>43.539499999999997</v>
       </c>
       <c r="L21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" t="s">
-        <v>19</v>
-      </c>
-      <c r="N21" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21">
-        <v>60</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="U21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="M21" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I21,",",J21)</f>
+        <v>https://www.google.com/maps/?q=36.32304,43.5395</v>
+      </c>
+      <c r="N21" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I21,",",J21)</f>
+        <v>https://www.bing.com/maps/?q=36.32304,43.5395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>42789</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C22" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="F22">
-        <v>2706108</v>
+        <v>2307084</v>
       </c>
       <c r="G22" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="I22">
-        <v>35.744711000000002</v>
+        <v>33.317383450000001</v>
       </c>
       <c r="J22">
-        <v>43.267578</v>
-      </c>
-      <c r="K22">
-        <v>91</v>
+        <v>44.291053179999999</v>
       </c>
       <c r="L22" t="s">
-        <v>18</v>
-      </c>
-      <c r="M22" t="s">
-        <v>19</v>
-      </c>
-      <c r="N22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22">
-        <v>91</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="U22" t="s">
+        <v>122</v>
+      </c>
+      <c r="M22" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I22,",",J22)</f>
+        <v>https://www.google.com/maps/?q=33.31738345,44.29105318</v>
+      </c>
+      <c r="N22" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I22,",",J22)</f>
+        <v>https://www.bing.com/maps/?q=33.31738345,44.29105318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>42675</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>2703019</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23">
-        <v>2706108</v>
-      </c>
-      <c r="G23" t="s">
-        <v>95</v>
-      </c>
-      <c r="H23" t="s">
-        <v>99</v>
-      </c>
       <c r="I23">
-        <v>35.744711000000002</v>
+        <v>36.308070000000001</v>
       </c>
       <c r="J23">
-        <v>43.267578</v>
-      </c>
-      <c r="K23">
-        <v>188</v>
-      </c>
-      <c r="L23" t="s">
-        <v>18</v>
-      </c>
-      <c r="M23" t="s">
-        <v>145</v>
-      </c>
-      <c r="N23" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q23">
-        <v>188</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="U23" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.543709999999997</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I23,",",J23)</f>
+        <v>https://www.google.com/maps/?q=36.30807,43.54371</v>
+      </c>
+      <c r="N23" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I23,",",J23)</f>
+        <v>https://www.bing.com/maps/?q=36.30807,43.54371</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>42789</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>152</v>
+      </c>
+      <c r="F24">
+        <v>2108044</v>
       </c>
       <c r="G24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H24" t="s">
+        <v>153</v>
+      </c>
+      <c r="I24">
+        <v>33.400599460000002</v>
+      </c>
+      <c r="J24">
+        <v>43.134930539999999</v>
+      </c>
+      <c r="L24" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I24,",",J24)</f>
+        <v>https://www.google.com/maps/?q=33.40059946,43.13493054</v>
+      </c>
+      <c r="N24" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I24,",",J24)</f>
+        <v>https://www.bing.com/maps/?q=33.40059946,43.13493054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>42915</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
         <v>95</v>
       </c>
-      <c r="H24" t="s">
-        <v>148</v>
-      </c>
-      <c r="I24">
-        <v>36.335090000000001</v>
-      </c>
-      <c r="J24">
-        <v>43.547687000000003</v>
-      </c>
-      <c r="K24">
-        <v>3127</v>
-      </c>
-      <c r="L24" t="s">
-        <v>18</v>
-      </c>
-      <c r="M24" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24">
-        <v>3127</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="U24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="C25" t="s">
-        <v>18</v>
-      </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E25" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="F25">
-        <v>2701015</v>
+        <v>2108047</v>
       </c>
       <c r="G25" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>152</v>
+        <v>186</v>
       </c>
       <c r="I25">
-        <v>36.689183</v>
+        <v>33.340912000000003</v>
       </c>
       <c r="J25">
-        <v>43.799536000000003</v>
-      </c>
-      <c r="K25">
-        <v>8</v>
-      </c>
-      <c r="L25" t="s">
-        <v>18</v>
-      </c>
-      <c r="M25" t="s">
-        <v>19</v>
-      </c>
-      <c r="N25" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q25">
-        <v>8</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="U25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42.785190999999998</v>
+      </c>
+      <c r="M25" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I25,",",J25)</f>
+        <v>https://www.google.com/maps/?q=33.340912,42.785191</v>
+      </c>
+      <c r="N25" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I25,",",J25)</f>
+        <v>https://www.bing.com/maps/?q=33.340912,42.785191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>42789</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="F26">
-        <v>2706121</v>
+        <v>2701015</v>
       </c>
       <c r="G26" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I26">
-        <v>35.745247999999997</v>
+        <v>36.689183</v>
       </c>
       <c r="J26">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K26">
-        <v>381</v>
+        <v>43.799536000000003</v>
       </c>
       <c r="L26" t="s">
-        <v>18</v>
-      </c>
-      <c r="M26" t="s">
-        <v>146</v>
-      </c>
-      <c r="N26" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q26">
-        <v>381</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="U26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="M26" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I26,",",J26)</f>
+        <v>https://www.google.com/maps/?q=36.689183,43.799536</v>
+      </c>
+      <c r="N26" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I26,",",J26)</f>
+        <v>https://www.bing.com/maps/?q=36.689183,43.799536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="F27">
-        <v>2706121</v>
+        <v>2701015</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="I27">
-        <v>35.745247999999997</v>
+        <v>36.689183</v>
       </c>
       <c r="J27">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K27">
-        <v>142</v>
+        <v>43.799536000000003</v>
       </c>
       <c r="L27" t="s">
-        <v>18</v>
-      </c>
-      <c r="M27" t="s">
-        <v>19</v>
-      </c>
-      <c r="N27" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q27">
-        <v>142</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="U27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="M27" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I27,",",J27)</f>
+        <v>https://www.google.com/maps/?q=36.689183,43.799536</v>
+      </c>
+      <c r="N27" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I27,",",J27)</f>
+        <v>https://www.bing.com/maps/?q=36.689183,43.799536</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>42789</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s">
         <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E28" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F28">
-        <v>2706108</v>
+        <v>2704034</v>
       </c>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="I28">
-        <v>35.744711000000002</v>
+        <v>36.618779000000004</v>
       </c>
       <c r="J28">
-        <v>43.267578</v>
-      </c>
-      <c r="K28">
-        <v>28</v>
+        <v>43.305425999999997</v>
       </c>
       <c r="L28" t="s">
-        <v>18</v>
-      </c>
-      <c r="M28" t="s">
-        <v>146</v>
-      </c>
-      <c r="N28" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q28">
-        <v>28</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="U28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="M28" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I28,",",J28)</f>
+        <v>https://www.google.com/maps/?q=36.618779,43.305426</v>
+      </c>
+      <c r="N28" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I28,",",J28)</f>
+        <v>https://www.bing.com/maps/?q=36.618779,43.305426</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C29" t="s">
         <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E29" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="F29">
-        <v>2706121</v>
+        <v>2704035</v>
       </c>
       <c r="G29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="I29">
-        <v>35.745247999999997</v>
+        <v>36.623407999999998</v>
       </c>
       <c r="J29">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K29">
-        <v>197</v>
+        <v>43.304554000000003</v>
       </c>
       <c r="L29" t="s">
-        <v>18</v>
-      </c>
-      <c r="M29" t="s">
-        <v>19</v>
-      </c>
-      <c r="N29" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29">
-        <v>197</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="U29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+      <c r="M29" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I29,",",J29)</f>
+        <v>https://www.google.com/maps/?q=36.623408,43.304554</v>
+      </c>
+      <c r="N29" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I29,",",J29)</f>
+        <v>https://www.bing.com/maps/?q=36.623408,43.304554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>42789</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C30" t="s">
         <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F30">
-        <v>2706121</v>
+        <v>2703016</v>
       </c>
       <c r="G30" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s">
-        <v>154</v>
+        <v>110</v>
       </c>
       <c r="I30">
-        <v>35.745247999999997</v>
+        <v>36.490310000000001</v>
       </c>
       <c r="J30">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K30">
-        <v>41</v>
+        <v>43.507689999999997</v>
       </c>
       <c r="L30" t="s">
-        <v>18</v>
-      </c>
-      <c r="M30" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q30">
-        <v>41</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="U30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="M30" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I30,",",J30)</f>
+        <v>https://www.google.com/maps/?q=36.49031,43.50769</v>
+      </c>
+      <c r="N30" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I30,",",J30)</f>
+        <v>https://www.bing.com/maps/?q=36.49031,43.50769</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>42789</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C31" t="s">
         <v>18</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="F31">
+        <v>2706121</v>
       </c>
       <c r="G31" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="I31">
-        <v>36.335090000000001</v>
+        <v>35.745247999999997</v>
       </c>
       <c r="J31">
-        <v>43.547687000000003</v>
-      </c>
-      <c r="K31">
-        <v>477</v>
+        <v>43.265157000000002</v>
       </c>
       <c r="L31" t="s">
-        <v>18</v>
-      </c>
-      <c r="M31" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q31">
-        <v>477</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="U31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="M31" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I31,",",J31)</f>
+        <v>https://www.google.com/maps/?q=35.745248,43.265157</v>
+      </c>
+      <c r="N31" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I31,",",J31)</f>
+        <v>https://www.bing.com/maps/?q=35.745248,43.265157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>42789</v>
       </c>
       <c r="B32" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C32" t="s">
         <v>18</v>
@@ -2764,10 +2362,10 @@
         <v>2706123</v>
       </c>
       <c r="G32" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="I32">
         <v>35.751703999999997</v>
@@ -2775,137 +2373,110 @@
       <c r="J32">
         <v>43.266148999999999</v>
       </c>
-      <c r="K32">
-        <v>1056</v>
-      </c>
       <c r="L32" t="s">
-        <v>18</v>
-      </c>
-      <c r="M32" t="s">
-        <v>146</v>
-      </c>
-      <c r="N32" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q32">
-        <v>1056</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="U32" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="M32" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I32,",",J32)</f>
+        <v>https://www.google.com/maps/?q=35.751704,43.266149</v>
+      </c>
+      <c r="N32" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I32,",",J32)</f>
+        <v>https://www.bing.com/maps/?q=35.751704,43.266149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="F33">
-        <v>1204015</v>
+        <v>2706140</v>
       </c>
       <c r="G33" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I33">
-        <v>35.882770000000001</v>
+        <v>35.739972000000002</v>
       </c>
       <c r="J33">
-        <v>43.808610000000002</v>
-      </c>
-      <c r="K33">
-        <v>24</v>
+        <v>43.267453000000003</v>
       </c>
       <c r="L33" t="s">
-        <v>18</v>
-      </c>
-      <c r="M33" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q33">
-        <v>24</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="U33" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="M33" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I33,",",J33)</f>
+        <v>https://www.google.com/maps/?q=35.739972,43.267453</v>
+      </c>
+      <c r="N33" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I33,",",J33)</f>
+        <v>https://www.bing.com/maps/?q=35.739972,43.267453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B34" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D34" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="F34">
-        <v>1204015</v>
+        <v>2706154</v>
       </c>
       <c r="G34" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="I34">
-        <v>35.882770000000001</v>
+        <v>35.759045999999998</v>
       </c>
       <c r="J34">
-        <v>43.808610000000002</v>
-      </c>
-      <c r="K34">
-        <v>53</v>
+        <v>43.267291999999998</v>
       </c>
       <c r="L34" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" t="s">
-        <v>46</v>
-      </c>
-      <c r="N34" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q34">
-        <v>53</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="U34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="M34" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I34,",",J34)</f>
+        <v>https://www.google.com/maps/?q=35.759046,43.267292</v>
+      </c>
+      <c r="N34" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I34,",",J34)</f>
+        <v>https://www.bing.com/maps/?q=35.759046,43.267292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B35" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -2916,170 +2487,137 @@
       <c r="E35" t="s">
         <v>22</v>
       </c>
-      <c r="F35">
-        <v>2706123</v>
-      </c>
       <c r="G35" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="I35">
-        <v>35.751703999999997</v>
+        <v>35.760978000000001</v>
       </c>
       <c r="J35">
-        <v>43.266148999999999</v>
-      </c>
-      <c r="K35">
-        <v>806</v>
+        <v>43.267733</v>
       </c>
       <c r="L35" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N35" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q35">
-        <v>806</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="U35" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="M35" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I35,",",J35)</f>
+        <v>https://www.google.com/maps/?q=35.760978,43.267733</v>
+      </c>
+      <c r="N35" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I35,",",J35)</f>
+        <v>https://www.bing.com/maps/?q=35.760978,43.267733</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>42789</v>
+        <v>42675</v>
       </c>
       <c r="B36" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C36" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="F36">
-        <v>2307104</v>
+        <v>2706108</v>
       </c>
       <c r="G36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s">
-        <v>162</v>
+        <v>93</v>
       </c>
       <c r="I36">
-        <v>33.241079630000002</v>
+        <v>35.744711000000002</v>
       </c>
       <c r="J36">
-        <v>44.407775170000001</v>
-      </c>
-      <c r="K36">
-        <v>2</v>
+        <v>43.267578</v>
       </c>
       <c r="L36" t="s">
-        <v>18</v>
-      </c>
-      <c r="M36" t="s">
-        <v>19</v>
-      </c>
-      <c r="N36" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q36">
-        <v>2</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="M36" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I36,",",J36)</f>
+        <v>https://www.google.com/maps/?q=35.744711,43.267578</v>
+      </c>
+      <c r="N36" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I36,",",J36)</f>
+        <v>https://www.bing.com/maps/?q=35.744711,43.267578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>42789</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C37" t="s">
-        <v>101</v>
+        <v>136</v>
       </c>
       <c r="D37" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="F37">
-        <v>2108044</v>
+        <v>2808063</v>
       </c>
       <c r="G37" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I37">
-        <v>33.400599460000002</v>
+        <v>34.82091767</v>
       </c>
       <c r="J37">
-        <v>43.134930539999999</v>
-      </c>
-      <c r="K37">
-        <v>20</v>
-      </c>
-      <c r="L37" t="s">
-        <v>18</v>
-      </c>
-      <c r="M37" t="s">
-        <v>19</v>
-      </c>
-      <c r="N37" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q37">
-        <v>20</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
-      </c>
-      <c r="U37" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.578059060000001</v>
+      </c>
+      <c r="M37" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I37,",",J37)</f>
+        <v>https://www.google.com/maps/?q=34.82091767,43.57805906</v>
+      </c>
+      <c r="N37" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I37,",",J37)</f>
+        <v>https://www.bing.com/maps/?q=34.82091767,43.57805906</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="D38" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E38" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>2808063</v>
       </c>
       <c r="G38" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H38" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="I38">
         <v>34.82091767</v>
@@ -3087,4074 +2625,508 @@
       <c r="J38">
         <v>43.578059060000001</v>
       </c>
-      <c r="K38">
-        <v>19</v>
-      </c>
-      <c r="L38" t="s">
-        <v>18</v>
-      </c>
-      <c r="M38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q38">
-        <v>19</v>
-      </c>
-      <c r="R38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M38" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I38,",",J38)</f>
+        <v>https://www.google.com/maps/?q=34.82091767,43.57805906</v>
+      </c>
+      <c r="N38" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I38,",",J38)</f>
+        <v>https://www.bing.com/maps/?q=34.82091767,43.57805906</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>42789</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>124</v>
+        <v>161</v>
       </c>
       <c r="D39" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F39">
-        <v>2302072</v>
+        <v>1305022</v>
       </c>
       <c r="G39" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="I39">
-        <v>33.472742433999997</v>
+        <v>34.705441540000002</v>
       </c>
       <c r="J39">
-        <v>44.3829206407</v>
-      </c>
-      <c r="K39">
-        <v>2</v>
+        <v>45.449105850000002</v>
       </c>
       <c r="L39" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" t="s">
-        <v>19</v>
-      </c>
-      <c r="N39" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39">
-        <v>2</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="M39" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I39,",",J39)</f>
+        <v>https://www.google.com/maps/?q=34.70544154,45.44910585</v>
+      </c>
+      <c r="N39" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I39,",",J39)</f>
+        <v>https://www.bing.com/maps/?q=34.70544154,45.44910585</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>42789</v>
+        <v>42915</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>161</v>
       </c>
       <c r="D40" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="F40">
-        <v>2704034</v>
+        <v>1305022</v>
       </c>
       <c r="G40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I40">
-        <v>36.618779000000004</v>
+        <v>34.705441540000002</v>
       </c>
       <c r="J40">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K40">
-        <v>667</v>
+        <v>45.449105850000002</v>
       </c>
       <c r="L40" t="s">
-        <v>18</v>
-      </c>
-      <c r="M40" t="s">
-        <v>19</v>
-      </c>
-      <c r="N40" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q40">
-        <v>667</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="U40" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="M40" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I40,",",J40)</f>
+        <v>https://www.google.com/maps/?q=34.70544154,45.44910585</v>
+      </c>
+      <c r="N40" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I40,",",J40)</f>
+        <v>https://www.bing.com/maps/?q=34.70544154,45.44910585</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>42789</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>150</v>
       </c>
       <c r="F41">
-        <v>2704034</v>
+        <v>2307143</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I41">
-        <v>36.618779000000004</v>
+        <v>33.171678810000003</v>
       </c>
       <c r="J41">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K41">
-        <v>811</v>
-      </c>
-      <c r="L41" t="s">
-        <v>18</v>
-      </c>
-      <c r="M41" t="s">
-        <v>38</v>
-      </c>
-      <c r="N41" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q41">
-        <v>811</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="U41" t="s">
+        <v>44.363831570000002</v>
+      </c>
+      <c r="M41" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I41,",",J41)</f>
+        <v>https://www.google.com/maps/?q=33.17167881,44.36383157</v>
+      </c>
+      <c r="N41" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I41,",",J41)</f>
+        <v>https://www.bing.com/maps/?q=33.17167881,44.36383157</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>42915</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>150</v>
+      </c>
+      <c r="F42">
+        <v>2307143</v>
+      </c>
+      <c r="G42" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-      <c r="E42" t="s">
-        <v>42</v>
-      </c>
-      <c r="F42">
-        <v>2704034</v>
-      </c>
-      <c r="G42" t="s">
-        <v>95</v>
-      </c>
-      <c r="H42" t="s">
-        <v>170</v>
-      </c>
       <c r="I42">
-        <v>36.618779000000004</v>
+        <v>33.171678810000003</v>
       </c>
       <c r="J42">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K42">
-        <v>84</v>
+        <v>44.363831570000002</v>
       </c>
       <c r="L42" t="s">
-        <v>18</v>
-      </c>
-      <c r="M42" t="s">
-        <v>19</v>
-      </c>
-      <c r="N42" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q42">
-        <v>84</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="U42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="M42" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I42,",",J42)</f>
+        <v>https://www.google.com/maps/?q=33.17167881,44.36383157</v>
+      </c>
+      <c r="N42" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I42,",",J42)</f>
+        <v>https://www.bing.com/maps/?q=33.17167881,44.36383157</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>42789</v>
+        <v>42675</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E43" t="s">
-        <v>42</v>
-      </c>
-      <c r="F43">
-        <v>2704034</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="I43">
-        <v>36.618779000000004</v>
+        <v>36.490310000000001</v>
       </c>
       <c r="J43">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43" t="s">
-        <v>18</v>
-      </c>
-      <c r="M43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N43" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q43">
-        <v>1</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="U43" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>43.507689999999997</v>
+      </c>
+      <c r="M43" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I43,",",J43)</f>
+        <v>https://www.google.com/maps/?q=36.49031,43.50769</v>
+      </c>
+      <c r="N43" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I43,",",J43)</f>
+        <v>https://www.bing.com/maps/?q=36.49031,43.50769</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>42789</v>
+        <v>42675</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
-        <v>173</v>
+        <v>18</v>
       </c>
       <c r="D44" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>175</v>
-      </c>
-      <c r="F44">
-        <v>1305022</v>
+        <v>30</v>
       </c>
       <c r="G44" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s">
-        <v>176</v>
+        <v>90</v>
       </c>
       <c r="I44">
-        <v>34.705441540000002</v>
+        <v>36.490310000000001</v>
       </c>
       <c r="J44">
-        <v>45.449105850000002</v>
-      </c>
-      <c r="K44">
-        <v>5</v>
-      </c>
-      <c r="L44" t="s">
-        <v>18</v>
-      </c>
-      <c r="M44" t="s">
-        <v>19</v>
-      </c>
-      <c r="N44" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q44">
-        <v>5</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="U44" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" t="s">
-        <v>161</v>
-      </c>
-      <c r="F45">
-        <v>2307053</v>
-      </c>
-      <c r="G45" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" t="s">
-        <v>178</v>
-      </c>
-      <c r="I45">
-        <v>33.2254577</v>
-      </c>
-      <c r="J45">
-        <v>44.368807259999997</v>
-      </c>
-      <c r="K45">
-        <v>2</v>
-      </c>
-      <c r="L45" t="s">
-        <v>18</v>
-      </c>
-      <c r="M45" t="s">
-        <v>19</v>
-      </c>
-      <c r="N45" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q45">
-        <v>2</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B46" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" t="s">
-        <v>22</v>
-      </c>
-      <c r="F46">
-        <v>2706121</v>
-      </c>
-      <c r="G46" t="s">
-        <v>95</v>
-      </c>
-      <c r="H46" t="s">
-        <v>154</v>
-      </c>
-      <c r="I46">
-        <v>35.745247999999997</v>
-      </c>
-      <c r="J46">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K46">
-        <v>449</v>
-      </c>
-      <c r="L46" t="s">
-        <v>18</v>
-      </c>
-      <c r="M46" t="s">
-        <v>19</v>
-      </c>
-      <c r="N46" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q46">
-        <v>449</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="U46" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B47" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="E47" t="s">
-        <v>30</v>
-      </c>
-      <c r="F47">
-        <v>2703019</v>
-      </c>
-      <c r="G47" t="s">
-        <v>95</v>
-      </c>
-      <c r="H47" t="s">
-        <v>106</v>
-      </c>
-      <c r="I47">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J47">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K47">
-        <v>261</v>
-      </c>
-      <c r="L47" t="s">
-        <v>18</v>
-      </c>
-      <c r="M47" t="s">
-        <v>38</v>
-      </c>
-      <c r="N47" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q47">
-        <v>261</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="U47" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B48" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" t="s">
-        <v>124</v>
-      </c>
-      <c r="D48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" t="s">
-        <v>126</v>
-      </c>
-      <c r="F48">
-        <v>2307082</v>
-      </c>
-      <c r="G48" t="s">
-        <v>95</v>
-      </c>
-      <c r="H48" t="s">
-        <v>182</v>
-      </c>
-      <c r="I48">
-        <v>33.311239010000001</v>
-      </c>
-      <c r="J48">
-        <v>44.315817180000003</v>
-      </c>
-      <c r="K48">
-        <v>93</v>
-      </c>
-      <c r="L48" t="s">
-        <v>18</v>
-      </c>
-      <c r="M48" t="s">
-        <v>19</v>
-      </c>
-      <c r="N48" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q48">
-        <v>93</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>25</v>
-      </c>
-      <c r="E49" t="s">
-        <v>30</v>
-      </c>
-      <c r="F49">
-        <v>2703020</v>
-      </c>
-      <c r="G49" t="s">
-        <v>95</v>
-      </c>
-      <c r="H49" t="s">
-        <v>140</v>
-      </c>
-      <c r="I49">
-        <v>36.323039999999999</v>
-      </c>
-      <c r="J49">
-        <v>43.539499999999997</v>
-      </c>
-      <c r="K49">
-        <v>91</v>
-      </c>
-      <c r="L49" t="s">
-        <v>18</v>
-      </c>
-      <c r="M49" t="s">
-        <v>38</v>
-      </c>
-      <c r="N49" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q49">
-        <v>91</v>
-      </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="U49" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B50" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" t="s">
-        <v>125</v>
-      </c>
-      <c r="E50" t="s">
-        <v>126</v>
-      </c>
-      <c r="F50">
-        <v>2307144</v>
-      </c>
-      <c r="G50" t="s">
-        <v>95</v>
-      </c>
-      <c r="H50" t="s">
-        <v>183</v>
-      </c>
-      <c r="I50">
-        <v>33.33100932</v>
-      </c>
-      <c r="J50">
-        <v>44.292915219999998</v>
-      </c>
-      <c r="K50">
-        <v>8</v>
-      </c>
-      <c r="L50" t="s">
-        <v>18</v>
-      </c>
-      <c r="M50" t="s">
-        <v>19</v>
-      </c>
-      <c r="N50" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q50">
-        <v>8</v>
-      </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" t="s">
-        <v>125</v>
-      </c>
-      <c r="E51" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51">
-        <v>2307143</v>
-      </c>
-      <c r="G51" t="s">
-        <v>95</v>
-      </c>
-      <c r="H51" t="s">
-        <v>184</v>
-      </c>
-      <c r="I51">
-        <v>33.171678810000003</v>
-      </c>
-      <c r="J51">
-        <v>44.363831570000002</v>
-      </c>
-      <c r="K51">
-        <v>8</v>
-      </c>
-      <c r="L51" t="s">
-        <v>18</v>
-      </c>
-      <c r="M51" t="s">
-        <v>19</v>
-      </c>
-      <c r="N51" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q51">
-        <v>8</v>
-      </c>
-      <c r="R51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>42789</v>
-      </c>
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>25</v>
-      </c>
-      <c r="E52" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52">
-        <v>2703019</v>
-      </c>
-      <c r="G52" t="s">
-        <v>95</v>
-      </c>
-      <c r="H52" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J52">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K52">
-        <v>25</v>
-      </c>
-      <c r="L52" t="s">
-        <v>18</v>
-      </c>
-      <c r="M52" t="s">
-        <v>145</v>
-      </c>
-      <c r="N52" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q52">
-        <v>25</v>
-      </c>
-      <c r="R52">
-        <v>0</v>
-      </c>
-      <c r="U52" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B53" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>25</v>
-      </c>
-      <c r="E53" t="s">
-        <v>30</v>
-      </c>
-      <c r="F53">
-        <v>2703016</v>
-      </c>
-      <c r="G53" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" t="s">
-        <v>116</v>
-      </c>
-      <c r="I53">
-        <v>36.490310000000001</v>
-      </c>
-      <c r="J53">
         <v>43.507689999999997</v>
       </c>
-      <c r="K53">
-        <v>207</v>
-      </c>
-      <c r="L53" t="s">
-        <v>18</v>
-      </c>
-      <c r="M53" t="s">
-        <v>19</v>
-      </c>
-      <c r="N53" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q53">
-        <v>207</v>
-      </c>
-      <c r="R53">
-        <v>0</v>
-      </c>
-      <c r="U53" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B54" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>19</v>
-      </c>
-      <c r="E54" t="s">
-        <v>22</v>
-      </c>
-      <c r="F54">
-        <v>2706108</v>
-      </c>
-      <c r="G54" t="s">
-        <v>95</v>
-      </c>
-      <c r="H54" t="s">
-        <v>99</v>
-      </c>
-      <c r="I54">
-        <v>35.744711000000002</v>
-      </c>
-      <c r="J54">
-        <v>43.267578</v>
-      </c>
-      <c r="K54">
-        <v>330</v>
-      </c>
-      <c r="L54" t="s">
-        <v>18</v>
-      </c>
-      <c r="M54" t="s">
-        <v>19</v>
-      </c>
-      <c r="N54" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q54">
-        <v>330</v>
-      </c>
-      <c r="R54">
-        <v>0</v>
-      </c>
-      <c r="U54" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B55" t="s">
-        <v>82</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>25</v>
-      </c>
-      <c r="E55" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55">
-        <v>2703019</v>
-      </c>
-      <c r="G55" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" t="s">
-        <v>106</v>
-      </c>
-      <c r="I55">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J55">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K55">
-        <v>763</v>
-      </c>
-      <c r="L55" t="s">
-        <v>18</v>
-      </c>
-      <c r="M55" t="s">
-        <v>19</v>
-      </c>
-      <c r="N55" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q55">
-        <v>763</v>
-      </c>
-      <c r="R55">
-        <v>0</v>
-      </c>
-      <c r="T55">
-        <v>0</v>
-      </c>
-      <c r="U55" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B56" t="s">
-        <v>82</v>
-      </c>
-      <c r="C56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E56" t="s">
-        <v>126</v>
-      </c>
-      <c r="F56">
-        <v>2307084</v>
-      </c>
-      <c r="G56" t="s">
-        <v>95</v>
-      </c>
-      <c r="H56" t="s">
-        <v>127</v>
-      </c>
-      <c r="I56">
-        <v>33.317383450000001</v>
-      </c>
-      <c r="J56">
-        <v>44.291053179999999</v>
-      </c>
-      <c r="K56">
-        <v>16</v>
-      </c>
-      <c r="L56" t="s">
-        <v>18</v>
-      </c>
-      <c r="M56" t="s">
-        <v>19</v>
-      </c>
-      <c r="N56" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q56">
-        <v>16</v>
-      </c>
-      <c r="R56">
-        <v>0</v>
-      </c>
-      <c r="U56" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" t="s">
-        <v>25</v>
-      </c>
-      <c r="E57" t="s">
-        <v>30</v>
-      </c>
-      <c r="F57">
-        <v>2703019</v>
-      </c>
-      <c r="G57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" t="s">
-        <v>106</v>
-      </c>
-      <c r="I57">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J57">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K57">
-        <v>26</v>
-      </c>
-      <c r="L57" t="s">
-        <v>18</v>
-      </c>
-      <c r="M57" t="s">
-        <v>25</v>
-      </c>
-      <c r="N57" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q57">
-        <v>26</v>
-      </c>
-      <c r="R57">
-        <v>0</v>
-      </c>
-      <c r="U57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B58" t="s">
-        <v>82</v>
-      </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" t="s">
-        <v>30</v>
-      </c>
-      <c r="F58">
-        <v>2703019</v>
-      </c>
-      <c r="G58" t="s">
-        <v>95</v>
-      </c>
-      <c r="H58" t="s">
-        <v>106</v>
-      </c>
-      <c r="I58">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J58">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K58">
-        <v>4</v>
-      </c>
-      <c r="L58" t="s">
-        <v>18</v>
-      </c>
-      <c r="M58" t="s">
-        <v>25</v>
-      </c>
-      <c r="N58" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q58">
-        <v>4</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="U58" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B59" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" t="s">
-        <v>25</v>
-      </c>
-      <c r="E59" t="s">
-        <v>30</v>
-      </c>
-      <c r="F59">
-        <v>2703019</v>
-      </c>
-      <c r="G59" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J59">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K59">
-        <v>4983</v>
-      </c>
-      <c r="L59" t="s">
-        <v>18</v>
-      </c>
-      <c r="M59" t="s">
-        <v>19</v>
-      </c>
-      <c r="N59" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q59">
-        <v>4983</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B60" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" t="s">
-        <v>101</v>
-      </c>
-      <c r="D60" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>103</v>
-      </c>
-      <c r="F60">
-        <v>2105080</v>
-      </c>
-      <c r="G60" t="s">
-        <v>95</v>
-      </c>
-      <c r="H60" t="s">
-        <v>104</v>
-      </c>
-      <c r="I60">
-        <v>33.134210000000003</v>
-      </c>
-      <c r="J60">
-        <v>44.004910000000002</v>
-      </c>
-      <c r="K60">
-        <v>38</v>
-      </c>
-      <c r="L60" t="s">
-        <v>18</v>
-      </c>
-      <c r="M60" t="s">
-        <v>19</v>
-      </c>
-      <c r="N60" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q60">
-        <v>38</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="U60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B61" t="s">
-        <v>82</v>
-      </c>
-      <c r="C61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" t="s">
-        <v>102</v>
-      </c>
-      <c r="E61" t="s">
-        <v>103</v>
-      </c>
-      <c r="F61">
-        <v>2105082</v>
-      </c>
-      <c r="G61" t="s">
-        <v>95</v>
-      </c>
-      <c r="H61" t="s">
-        <v>138</v>
-      </c>
-      <c r="I61">
-        <v>33.145969999999998</v>
-      </c>
-      <c r="J61">
-        <v>43.844349999999999</v>
-      </c>
-      <c r="K61">
-        <v>36</v>
-      </c>
-      <c r="L61" t="s">
-        <v>18</v>
-      </c>
-      <c r="M61" t="s">
-        <v>19</v>
-      </c>
-      <c r="N61" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q61">
-        <v>36</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B62" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" t="s">
-        <v>18</v>
-      </c>
-      <c r="D62" t="s">
-        <v>25</v>
-      </c>
-      <c r="E62" t="s">
-        <v>30</v>
-      </c>
-      <c r="F62">
-        <v>2703020</v>
-      </c>
-      <c r="G62" t="s">
-        <v>95</v>
-      </c>
-      <c r="H62" t="s">
-        <v>140</v>
-      </c>
-      <c r="I62">
-        <v>36.323039999999999</v>
-      </c>
-      <c r="J62">
-        <v>43.539499999999997</v>
-      </c>
-      <c r="K62">
-        <v>988</v>
-      </c>
-      <c r="L62" t="s">
-        <v>18</v>
-      </c>
-      <c r="M62" t="s">
-        <v>19</v>
-      </c>
-      <c r="N62" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q62">
-        <v>988</v>
-      </c>
-      <c r="R62">
-        <v>0</v>
-      </c>
-      <c r="U62" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" t="s">
-        <v>18</v>
-      </c>
-      <c r="D63" t="s">
-        <v>25</v>
-      </c>
-      <c r="E63" t="s">
-        <v>30</v>
-      </c>
-      <c r="F63">
-        <v>2703020</v>
-      </c>
-      <c r="G63" t="s">
-        <v>95</v>
-      </c>
-      <c r="H63" t="s">
-        <v>140</v>
-      </c>
-      <c r="I63">
-        <v>36.323039999999999</v>
-      </c>
-      <c r="J63">
-        <v>43.539499999999997</v>
-      </c>
-      <c r="K63">
-        <v>457</v>
-      </c>
-      <c r="L63" t="s">
-        <v>18</v>
-      </c>
-      <c r="M63" t="s">
-        <v>19</v>
-      </c>
-      <c r="N63" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q63">
-        <v>457</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="U63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B64" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" t="s">
-        <v>18</v>
-      </c>
-      <c r="D64" t="s">
-        <v>19</v>
-      </c>
-      <c r="E64" t="s">
-        <v>22</v>
-      </c>
-      <c r="F64">
-        <v>2706108</v>
-      </c>
-      <c r="G64" t="s">
-        <v>95</v>
-      </c>
-      <c r="H64" t="s">
-        <v>99</v>
-      </c>
-      <c r="I64">
-        <v>35.744711000000002</v>
-      </c>
-      <c r="J64">
-        <v>43.267578</v>
-      </c>
-      <c r="K64">
-        <v>8</v>
-      </c>
-      <c r="L64" t="s">
-        <v>18</v>
-      </c>
-      <c r="M64" t="s">
-        <v>19</v>
-      </c>
-      <c r="N64" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q64">
-        <v>8</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="U64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" t="s">
-        <v>18</v>
-      </c>
-      <c r="D65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" t="s">
-        <v>22</v>
-      </c>
-      <c r="F65">
-        <v>2706108</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
-      <c r="H65" t="s">
-        <v>99</v>
-      </c>
-      <c r="I65">
-        <v>35.744711000000002</v>
-      </c>
-      <c r="J65">
-        <v>43.267578</v>
-      </c>
-      <c r="K65">
-        <v>188</v>
-      </c>
-      <c r="L65" t="s">
-        <v>18</v>
-      </c>
-      <c r="M65" t="s">
-        <v>19</v>
-      </c>
-      <c r="N65" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q65">
-        <v>188</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B66" t="s">
-        <v>82</v>
-      </c>
-      <c r="C66" t="s">
-        <v>18</v>
-      </c>
-      <c r="D66" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" t="s">
-        <v>22</v>
-      </c>
-      <c r="F66">
-        <v>2706108</v>
-      </c>
-      <c r="G66" t="s">
-        <v>95</v>
-      </c>
-      <c r="H66" t="s">
-        <v>99</v>
-      </c>
-      <c r="I66">
-        <v>35.744711000000002</v>
-      </c>
-      <c r="J66">
-        <v>43.267578</v>
-      </c>
-      <c r="K66">
-        <v>88</v>
-      </c>
-      <c r="L66" t="s">
-        <v>18</v>
-      </c>
-      <c r="M66" t="s">
-        <v>19</v>
-      </c>
-      <c r="N66" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q66">
-        <v>88</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="U66" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B67" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" t="s">
-        <v>18</v>
-      </c>
-      <c r="D67" t="s">
-        <v>19</v>
-      </c>
-      <c r="E67" t="s">
-        <v>22</v>
-      </c>
-      <c r="F67">
-        <v>2706108</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
-      <c r="H67" t="s">
-        <v>99</v>
-      </c>
-      <c r="I67">
-        <v>35.744711000000002</v>
-      </c>
-      <c r="J67">
-        <v>43.267578</v>
-      </c>
-      <c r="K67">
-        <v>188</v>
-      </c>
-      <c r="L67" t="s">
-        <v>18</v>
-      </c>
-      <c r="M67" t="s">
-        <v>145</v>
-      </c>
-      <c r="N67" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q67">
-        <v>188</v>
-      </c>
-      <c r="R67">
-        <v>0</v>
-      </c>
-      <c r="U67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B68" t="s">
-        <v>82</v>
-      </c>
-      <c r="C68" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" t="s">
-        <v>25</v>
-      </c>
-      <c r="E68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
-      </c>
-      <c r="H68" t="s">
-        <v>148</v>
-      </c>
-      <c r="I68">
-        <v>36.335090000000001</v>
-      </c>
-      <c r="J68">
-        <v>43.547687000000003</v>
-      </c>
-      <c r="K68">
-        <v>3241</v>
-      </c>
-      <c r="L68" t="s">
-        <v>18</v>
-      </c>
-      <c r="M68" t="s">
-        <v>19</v>
-      </c>
-      <c r="N68" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q68">
-        <v>3241</v>
-      </c>
-      <c r="R68">
-        <v>0</v>
-      </c>
-      <c r="U68" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B69" t="s">
-        <v>82</v>
-      </c>
-      <c r="C69" t="s">
-        <v>18</v>
-      </c>
-      <c r="D69" t="s">
-        <v>150</v>
-      </c>
-      <c r="E69" t="s">
-        <v>151</v>
-      </c>
-      <c r="F69">
-        <v>2701015</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
-      <c r="H69" t="s">
-        <v>152</v>
-      </c>
-      <c r="I69">
-        <v>36.689183</v>
-      </c>
-      <c r="J69">
-        <v>43.799536000000003</v>
-      </c>
-      <c r="K69">
-        <v>8</v>
-      </c>
-      <c r="L69" t="s">
-        <v>18</v>
-      </c>
-      <c r="M69" t="s">
-        <v>19</v>
-      </c>
-      <c r="N69" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q69">
-        <v>8</v>
-      </c>
-      <c r="R69">
-        <v>0</v>
-      </c>
-      <c r="U69" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" t="s">
-        <v>18</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>22</v>
-      </c>
-      <c r="F70">
-        <v>2706121</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
-      <c r="H70" t="s">
-        <v>154</v>
-      </c>
-      <c r="I70">
-        <v>35.745247999999997</v>
-      </c>
-      <c r="J70">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K70">
-        <v>381</v>
-      </c>
-      <c r="L70" t="s">
-        <v>18</v>
-      </c>
-      <c r="M70" t="s">
-        <v>146</v>
-      </c>
-      <c r="N70" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q70">
-        <v>381</v>
-      </c>
-      <c r="R70">
-        <v>0</v>
-      </c>
-      <c r="U70" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C71" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>22</v>
-      </c>
-      <c r="F71">
-        <v>2706121</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" t="s">
-        <v>154</v>
-      </c>
-      <c r="I71">
-        <v>35.745247999999997</v>
-      </c>
-      <c r="J71">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K71">
-        <v>142</v>
-      </c>
-      <c r="L71" t="s">
-        <v>18</v>
-      </c>
-      <c r="M71" t="s">
-        <v>19</v>
-      </c>
-      <c r="N71" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q71">
-        <v>142</v>
-      </c>
-      <c r="R71">
-        <v>0</v>
-      </c>
-      <c r="U71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B72" t="s">
-        <v>82</v>
-      </c>
-      <c r="C72" t="s">
-        <v>18</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>22</v>
-      </c>
-      <c r="F72">
-        <v>2706108</v>
-      </c>
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
-      <c r="H72" t="s">
-        <v>99</v>
-      </c>
-      <c r="I72">
-        <v>35.744711000000002</v>
-      </c>
-      <c r="J72">
-        <v>43.267578</v>
-      </c>
-      <c r="K72">
-        <v>28</v>
-      </c>
-      <c r="L72" t="s">
-        <v>18</v>
-      </c>
-      <c r="M72" t="s">
-        <v>146</v>
-      </c>
-      <c r="N72" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q72">
-        <v>28</v>
-      </c>
-      <c r="R72">
-        <v>0</v>
-      </c>
-      <c r="U72" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B73" t="s">
-        <v>82</v>
-      </c>
-      <c r="C73" t="s">
-        <v>18</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" t="s">
-        <v>22</v>
-      </c>
-      <c r="F73">
-        <v>2706121</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" t="s">
-        <v>154</v>
-      </c>
-      <c r="I73">
-        <v>35.745247999999997</v>
-      </c>
-      <c r="J73">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K73">
-        <v>276</v>
-      </c>
-      <c r="L73" t="s">
-        <v>18</v>
-      </c>
-      <c r="M73" t="s">
-        <v>19</v>
-      </c>
-      <c r="N73" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q73">
-        <v>276</v>
-      </c>
-      <c r="R73">
-        <v>0</v>
-      </c>
-      <c r="U73" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B74" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" t="s">
-        <v>18</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>22</v>
-      </c>
-      <c r="F74">
-        <v>2706121</v>
-      </c>
-      <c r="G74" t="s">
-        <v>95</v>
-      </c>
-      <c r="H74" t="s">
-        <v>154</v>
-      </c>
-      <c r="I74">
-        <v>35.745247999999997</v>
-      </c>
-      <c r="J74">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K74">
-        <v>45</v>
-      </c>
-      <c r="L74" t="s">
-        <v>18</v>
-      </c>
-      <c r="M74" t="s">
-        <v>19</v>
-      </c>
-      <c r="N74" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q74">
-        <v>45</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="U74" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B75" t="s">
-        <v>82</v>
-      </c>
-      <c r="C75" t="s">
-        <v>18</v>
-      </c>
-      <c r="D75" t="s">
-        <v>25</v>
-      </c>
-      <c r="E75" t="s">
-        <v>30</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
-      <c r="H75" t="s">
-        <v>148</v>
-      </c>
-      <c r="I75">
-        <v>36.335090000000001</v>
-      </c>
-      <c r="J75">
-        <v>43.547687000000003</v>
-      </c>
-      <c r="K75">
-        <v>512</v>
-      </c>
-      <c r="L75" t="s">
-        <v>18</v>
-      </c>
-      <c r="M75" t="s">
-        <v>38</v>
-      </c>
-      <c r="N75" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q75">
-        <v>512</v>
-      </c>
-      <c r="R75">
-        <v>0</v>
-      </c>
-      <c r="U75" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C76" t="s">
-        <v>18</v>
-      </c>
-      <c r="D76" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76">
-        <v>2706123</v>
-      </c>
-      <c r="G76" t="s">
-        <v>95</v>
-      </c>
-      <c r="H76" t="s">
-        <v>156</v>
-      </c>
-      <c r="I76">
-        <v>35.751703999999997</v>
-      </c>
-      <c r="J76">
-        <v>43.266148999999999</v>
-      </c>
-      <c r="K76">
-        <v>1026</v>
-      </c>
-      <c r="L76" t="s">
-        <v>18</v>
-      </c>
-      <c r="M76" t="s">
-        <v>146</v>
-      </c>
-      <c r="N76" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q76">
-        <v>1026</v>
-      </c>
-      <c r="R76">
-        <v>0</v>
-      </c>
-      <c r="U76" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B77" t="s">
-        <v>82</v>
-      </c>
-      <c r="C77" t="s">
-        <v>45</v>
-      </c>
-      <c r="D77" t="s">
-        <v>46</v>
-      </c>
-      <c r="E77" t="s">
-        <v>88</v>
-      </c>
-      <c r="F77">
-        <v>1204015</v>
-      </c>
-      <c r="G77" t="s">
-        <v>95</v>
-      </c>
-      <c r="H77" t="s">
-        <v>159</v>
-      </c>
-      <c r="I77">
-        <v>35.882770000000001</v>
-      </c>
-      <c r="J77">
-        <v>43.808610000000002</v>
-      </c>
-      <c r="K77">
-        <v>8</v>
-      </c>
-      <c r="L77" t="s">
-        <v>18</v>
-      </c>
-      <c r="M77" t="s">
-        <v>19</v>
-      </c>
-      <c r="N77" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q77">
-        <v>8</v>
-      </c>
-      <c r="R77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B78" t="s">
-        <v>82</v>
-      </c>
-      <c r="C78" t="s">
-        <v>45</v>
-      </c>
-      <c r="D78" t="s">
-        <v>46</v>
-      </c>
-      <c r="E78" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78">
-        <v>1204015</v>
-      </c>
-      <c r="G78" t="s">
-        <v>95</v>
-      </c>
-      <c r="H78" t="s">
-        <v>159</v>
-      </c>
-      <c r="I78">
-        <v>35.882770000000001</v>
-      </c>
-      <c r="J78">
-        <v>43.808610000000002</v>
-      </c>
-      <c r="K78">
-        <v>48</v>
-      </c>
-      <c r="L78" t="s">
-        <v>45</v>
-      </c>
-      <c r="M78" t="s">
-        <v>46</v>
-      </c>
-      <c r="N78" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q78">
-        <v>48</v>
-      </c>
-      <c r="R78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B79" t="s">
-        <v>82</v>
-      </c>
-      <c r="C79" t="s">
-        <v>18</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79">
-        <v>2706123</v>
-      </c>
-      <c r="G79" t="s">
-        <v>95</v>
-      </c>
-      <c r="H79" t="s">
-        <v>156</v>
-      </c>
-      <c r="I79">
-        <v>35.751703999999997</v>
-      </c>
-      <c r="J79">
-        <v>43.266148999999999</v>
-      </c>
-      <c r="K79">
-        <v>754</v>
-      </c>
-      <c r="L79" t="s">
-        <v>18</v>
-      </c>
-      <c r="M79" t="s">
-        <v>19</v>
-      </c>
-      <c r="N79" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q79">
-        <v>754</v>
-      </c>
-      <c r="R79">
-        <v>0</v>
-      </c>
-      <c r="U79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C80" t="s">
-        <v>124</v>
-      </c>
-      <c r="D80" t="s">
-        <v>125</v>
-      </c>
-      <c r="E80" t="s">
-        <v>161</v>
-      </c>
-      <c r="F80">
-        <v>2307104</v>
-      </c>
-      <c r="G80" t="s">
-        <v>95</v>
-      </c>
-      <c r="H80" t="s">
-        <v>162</v>
-      </c>
-      <c r="I80">
-        <v>33.241079630000002</v>
-      </c>
-      <c r="J80">
-        <v>44.407775170000001</v>
-      </c>
-      <c r="K80">
-        <v>11</v>
-      </c>
-      <c r="L80" t="s">
-        <v>18</v>
-      </c>
-      <c r="M80" t="s">
-        <v>19</v>
-      </c>
-      <c r="N80" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q80">
-        <v>11</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" t="s">
-        <v>163</v>
-      </c>
-      <c r="E81" t="s">
-        <v>164</v>
-      </c>
-      <c r="F81">
-        <v>2108044</v>
-      </c>
-      <c r="G81" t="s">
-        <v>95</v>
-      </c>
-      <c r="H81" t="s">
-        <v>165</v>
-      </c>
-      <c r="I81">
-        <v>33.400599460000002</v>
-      </c>
-      <c r="J81">
-        <v>43.134930539999999</v>
-      </c>
-      <c r="K81">
-        <v>51</v>
-      </c>
-      <c r="L81" t="s">
-        <v>18</v>
-      </c>
-      <c r="M81" t="s">
-        <v>19</v>
-      </c>
-      <c r="N81" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q81">
-        <v>51</v>
-      </c>
-      <c r="R81">
-        <v>0</v>
-      </c>
-      <c r="U81" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B82" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" t="s">
-        <v>144</v>
-      </c>
-      <c r="E82" t="s">
-        <v>167</v>
-      </c>
-      <c r="F82">
-        <v>2808063</v>
-      </c>
-      <c r="G82" t="s">
-        <v>95</v>
-      </c>
-      <c r="H82" t="s">
-        <v>168</v>
-      </c>
-      <c r="I82">
-        <v>34.82091767</v>
-      </c>
-      <c r="J82">
-        <v>43.578059060000001</v>
-      </c>
-      <c r="K82">
-        <v>19</v>
-      </c>
-      <c r="L82" t="s">
-        <v>18</v>
-      </c>
-      <c r="M82" t="s">
-        <v>19</v>
-      </c>
-      <c r="N82" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q82">
-        <v>19</v>
-      </c>
-      <c r="R82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" t="s">
-        <v>124</v>
-      </c>
-      <c r="D83" t="s">
-        <v>157</v>
-      </c>
-      <c r="E83" t="s">
-        <v>158</v>
-      </c>
-      <c r="F83">
-        <v>2302072</v>
-      </c>
-      <c r="G83" t="s">
-        <v>95</v>
-      </c>
-      <c r="H83" t="s">
-        <v>169</v>
-      </c>
-      <c r="I83">
-        <v>33.472742433999997</v>
-      </c>
-      <c r="J83">
-        <v>44.3829206407</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83" t="s">
-        <v>18</v>
-      </c>
-      <c r="M83" t="s">
-        <v>19</v>
-      </c>
-      <c r="N83" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q83">
-        <v>2</v>
-      </c>
-      <c r="R83">
-        <v>0</v>
-      </c>
-      <c r="U83" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B84" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F84">
-        <v>2704034</v>
-      </c>
-      <c r="G84" t="s">
-        <v>95</v>
-      </c>
-      <c r="H84" t="s">
-        <v>170</v>
-      </c>
-      <c r="I84">
-        <v>36.618779000000004</v>
-      </c>
-      <c r="J84">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K84">
-        <v>293</v>
-      </c>
-      <c r="L84" t="s">
-        <v>18</v>
-      </c>
-      <c r="M84" t="s">
-        <v>19</v>
-      </c>
-      <c r="N84" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q84">
-        <v>293</v>
-      </c>
-      <c r="R84">
-        <v>0</v>
-      </c>
-      <c r="U84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B85" t="s">
-        <v>82</v>
-      </c>
-      <c r="C85" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" t="s">
-        <v>41</v>
-      </c>
-      <c r="E85" t="s">
-        <v>42</v>
-      </c>
-      <c r="F85">
-        <v>2704034</v>
-      </c>
-      <c r="G85" t="s">
-        <v>95</v>
-      </c>
-      <c r="H85" t="s">
-        <v>170</v>
-      </c>
-      <c r="I85">
-        <v>36.618779000000004</v>
-      </c>
-      <c r="J85">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K85">
-        <v>648</v>
-      </c>
-      <c r="L85" t="s">
-        <v>18</v>
-      </c>
-      <c r="M85" t="s">
-        <v>38</v>
-      </c>
-      <c r="N85" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q85">
-        <v>648</v>
-      </c>
-      <c r="R85">
-        <v>0</v>
-      </c>
-      <c r="U85" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B86" t="s">
-        <v>82</v>
-      </c>
-      <c r="C86" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" t="s">
-        <v>41</v>
-      </c>
-      <c r="E86" t="s">
-        <v>42</v>
-      </c>
-      <c r="F86">
-        <v>2704034</v>
-      </c>
-      <c r="G86" t="s">
-        <v>95</v>
-      </c>
-      <c r="H86" t="s">
-        <v>170</v>
-      </c>
-      <c r="I86">
-        <v>36.618779000000004</v>
-      </c>
-      <c r="J86">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K86">
-        <v>71</v>
-      </c>
-      <c r="L86" t="s">
-        <v>18</v>
-      </c>
-      <c r="M86" t="s">
-        <v>19</v>
-      </c>
-      <c r="N86" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q86">
-        <v>71</v>
-      </c>
-      <c r="R86">
-        <v>0</v>
-      </c>
-      <c r="U86" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>173</v>
-      </c>
-      <c r="D87" t="s">
-        <v>174</v>
-      </c>
-      <c r="E87" t="s">
-        <v>175</v>
-      </c>
-      <c r="F87">
-        <v>1305022</v>
-      </c>
-      <c r="G87" t="s">
-        <v>95</v>
-      </c>
-      <c r="H87" t="s">
-        <v>176</v>
-      </c>
-      <c r="I87">
-        <v>34.705441540000002</v>
-      </c>
-      <c r="J87">
-        <v>45.449105850000002</v>
-      </c>
-      <c r="K87">
-        <v>6</v>
-      </c>
-      <c r="L87" t="s">
-        <v>18</v>
-      </c>
-      <c r="M87" t="s">
-        <v>19</v>
-      </c>
-      <c r="N87" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q87">
-        <v>6</v>
-      </c>
-      <c r="R87">
-        <v>0</v>
-      </c>
-      <c r="U87" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B88" t="s">
-        <v>82</v>
-      </c>
-      <c r="C88" t="s">
-        <v>124</v>
-      </c>
-      <c r="D88" t="s">
-        <v>125</v>
-      </c>
-      <c r="E88" t="s">
-        <v>161</v>
-      </c>
-      <c r="F88">
-        <v>2307053</v>
-      </c>
-      <c r="G88" t="s">
-        <v>95</v>
-      </c>
-      <c r="H88" t="s">
-        <v>178</v>
-      </c>
-      <c r="I88">
-        <v>33.2254577</v>
-      </c>
-      <c r="J88">
-        <v>44.368807259999997</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88" t="s">
-        <v>18</v>
-      </c>
-      <c r="M88" t="s">
-        <v>19</v>
-      </c>
-      <c r="N88" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q88">
-        <v>1</v>
-      </c>
-      <c r="R88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B89" t="s">
-        <v>82</v>
-      </c>
-      <c r="C89" t="s">
-        <v>18</v>
-      </c>
-      <c r="D89" t="s">
-        <v>19</v>
-      </c>
-      <c r="E89" t="s">
-        <v>22</v>
-      </c>
-      <c r="F89">
-        <v>2706121</v>
-      </c>
-      <c r="G89" t="s">
-        <v>95</v>
-      </c>
-      <c r="H89" t="s">
-        <v>154</v>
-      </c>
-      <c r="I89">
-        <v>35.745247999999997</v>
-      </c>
-      <c r="J89">
-        <v>43.265157000000002</v>
-      </c>
-      <c r="K89">
-        <v>444</v>
-      </c>
-      <c r="L89" t="s">
-        <v>18</v>
-      </c>
-      <c r="M89" t="s">
-        <v>19</v>
-      </c>
-      <c r="N89" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q89">
-        <v>444</v>
-      </c>
-      <c r="R89">
-        <v>0</v>
-      </c>
-      <c r="U89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B90" t="s">
-        <v>82</v>
-      </c>
-      <c r="C90" t="s">
-        <v>18</v>
-      </c>
-      <c r="D90" t="s">
-        <v>25</v>
-      </c>
-      <c r="E90" t="s">
-        <v>30</v>
-      </c>
-      <c r="F90">
-        <v>2703019</v>
-      </c>
-      <c r="G90" t="s">
-        <v>95</v>
-      </c>
-      <c r="H90" t="s">
-        <v>106</v>
-      </c>
-      <c r="I90">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J90">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K90">
-        <v>261</v>
-      </c>
-      <c r="L90" t="s">
-        <v>18</v>
-      </c>
-      <c r="M90" t="s">
-        <v>38</v>
-      </c>
-      <c r="N90" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q90">
-        <v>261</v>
-      </c>
-      <c r="R90">
-        <v>0</v>
-      </c>
-      <c r="U90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B91" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" t="s">
-        <v>124</v>
-      </c>
-      <c r="D91" t="s">
-        <v>125</v>
-      </c>
-      <c r="E91" t="s">
-        <v>126</v>
-      </c>
-      <c r="F91">
-        <v>2307082</v>
-      </c>
-      <c r="G91" t="s">
-        <v>95</v>
-      </c>
-      <c r="H91" t="s">
-        <v>182</v>
-      </c>
-      <c r="I91">
-        <v>33.311239010000001</v>
-      </c>
-      <c r="J91">
-        <v>44.315817180000003</v>
-      </c>
-      <c r="K91">
-        <v>98</v>
-      </c>
-      <c r="L91" t="s">
-        <v>18</v>
-      </c>
-      <c r="M91" t="s">
-        <v>19</v>
-      </c>
-      <c r="N91" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q91">
-        <v>98</v>
-      </c>
-      <c r="R91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B92" t="s">
-        <v>82</v>
-      </c>
-      <c r="C92" t="s">
-        <v>18</v>
-      </c>
-      <c r="D92" t="s">
-        <v>25</v>
-      </c>
-      <c r="E92" t="s">
-        <v>30</v>
-      </c>
-      <c r="F92">
-        <v>2703020</v>
-      </c>
-      <c r="G92" t="s">
-        <v>95</v>
-      </c>
-      <c r="H92" t="s">
-        <v>140</v>
-      </c>
-      <c r="I92">
-        <v>36.323039999999999</v>
-      </c>
-      <c r="J92">
-        <v>43.539499999999997</v>
-      </c>
-      <c r="K92">
-        <v>91</v>
-      </c>
-      <c r="L92" t="s">
-        <v>18</v>
-      </c>
-      <c r="M92" t="s">
-        <v>38</v>
-      </c>
-      <c r="N92" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q92">
-        <v>91</v>
-      </c>
-      <c r="R92">
-        <v>0</v>
-      </c>
-      <c r="U92" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B93" t="s">
-        <v>82</v>
-      </c>
-      <c r="C93" t="s">
-        <v>124</v>
-      </c>
-      <c r="D93" t="s">
-        <v>125</v>
-      </c>
-      <c r="E93" t="s">
-        <v>126</v>
-      </c>
-      <c r="F93">
-        <v>2307144</v>
-      </c>
-      <c r="G93" t="s">
-        <v>95</v>
-      </c>
-      <c r="H93" t="s">
-        <v>183</v>
-      </c>
-      <c r="I93">
-        <v>33.33100932</v>
-      </c>
-      <c r="J93">
-        <v>44.292915219999998</v>
-      </c>
-      <c r="K93">
-        <v>8</v>
-      </c>
-      <c r="L93" t="s">
-        <v>18</v>
-      </c>
-      <c r="M93" t="s">
-        <v>19</v>
-      </c>
-      <c r="N93" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q93">
-        <v>8</v>
-      </c>
-      <c r="R93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B94" t="s">
-        <v>82</v>
-      </c>
-      <c r="C94" t="s">
-        <v>124</v>
-      </c>
-      <c r="D94" t="s">
-        <v>125</v>
-      </c>
-      <c r="E94" t="s">
-        <v>161</v>
-      </c>
-      <c r="F94">
-        <v>2307143</v>
-      </c>
-      <c r="G94" t="s">
-        <v>95</v>
-      </c>
-      <c r="H94" t="s">
-        <v>184</v>
-      </c>
-      <c r="I94">
-        <v>33.171678810000003</v>
-      </c>
-      <c r="J94">
-        <v>44.363831570000002</v>
-      </c>
-      <c r="K94">
-        <v>8</v>
-      </c>
-      <c r="L94" t="s">
-        <v>18</v>
-      </c>
-      <c r="M94" t="s">
-        <v>19</v>
-      </c>
-      <c r="N94" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q94">
-        <v>8</v>
-      </c>
-      <c r="R94">
-        <v>0</v>
-      </c>
-      <c r="U94" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B95" t="s">
-        <v>82</v>
-      </c>
-      <c r="C95" t="s">
-        <v>18</v>
-      </c>
-      <c r="D95" t="s">
-        <v>25</v>
-      </c>
-      <c r="E95" t="s">
-        <v>30</v>
-      </c>
-      <c r="F95">
-        <v>2703019</v>
-      </c>
-      <c r="G95" t="s">
-        <v>95</v>
-      </c>
-      <c r="H95" t="s">
-        <v>106</v>
-      </c>
-      <c r="I95">
-        <v>36.308070000000001</v>
-      </c>
-      <c r="J95">
-        <v>43.543709999999997</v>
-      </c>
-      <c r="K95">
-        <v>25</v>
-      </c>
-      <c r="L95" t="s">
-        <v>18</v>
-      </c>
-      <c r="M95" t="s">
-        <v>145</v>
-      </c>
-      <c r="N95" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q95">
-        <v>25</v>
-      </c>
-      <c r="R95">
-        <v>0</v>
-      </c>
-      <c r="U95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B96" t="s">
-        <v>82</v>
-      </c>
-      <c r="C96" t="s">
-        <v>18</v>
-      </c>
-      <c r="D96" t="s">
-        <v>19</v>
-      </c>
-      <c r="E96" t="s">
-        <v>22</v>
-      </c>
-      <c r="F96">
-        <v>2706140</v>
-      </c>
-      <c r="G96" t="s">
-        <v>95</v>
-      </c>
-      <c r="H96" t="s">
-        <v>191</v>
-      </c>
-      <c r="I96">
-        <v>35.739972000000002</v>
-      </c>
-      <c r="J96">
-        <v>43.267453000000003</v>
-      </c>
-      <c r="K96">
-        <v>1379</v>
-      </c>
-      <c r="L96" t="s">
-        <v>18</v>
-      </c>
-      <c r="M96" t="s">
-        <v>19</v>
-      </c>
-      <c r="N96" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q96">
-        <v>1379</v>
-      </c>
-      <c r="R96">
-        <v>0</v>
-      </c>
-      <c r="U96" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B97" t="s">
-        <v>82</v>
-      </c>
-      <c r="C97" t="s">
-        <v>124</v>
-      </c>
-      <c r="D97" t="s">
-        <v>130</v>
-      </c>
-      <c r="E97" t="s">
-        <v>131</v>
-      </c>
-      <c r="F97">
-        <v>2301005</v>
-      </c>
-      <c r="G97" t="s">
-        <v>95</v>
-      </c>
-      <c r="H97" t="s">
-        <v>193</v>
-      </c>
-      <c r="I97">
-        <v>33.290997840000003</v>
-      </c>
-      <c r="J97">
-        <v>44.110346610000001</v>
-      </c>
-      <c r="K97">
-        <v>28</v>
-      </c>
-      <c r="L97" t="s">
-        <v>18</v>
-      </c>
-      <c r="M97" t="s">
-        <v>19</v>
-      </c>
-      <c r="N97" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q97">
-        <v>28</v>
-      </c>
-      <c r="R97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B98" t="s">
-        <v>82</v>
-      </c>
-      <c r="C98" t="s">
-        <v>18</v>
-      </c>
-      <c r="D98" t="s">
-        <v>19</v>
-      </c>
-      <c r="E98" t="s">
-        <v>53</v>
-      </c>
-      <c r="G98" t="s">
-        <v>95</v>
-      </c>
-      <c r="H98" t="s">
-        <v>194</v>
-      </c>
-      <c r="I98">
-        <v>36.161892999999999</v>
-      </c>
-      <c r="J98">
-        <v>43.246417000000001</v>
-      </c>
-      <c r="K98">
-        <v>3243</v>
-      </c>
-      <c r="L98" t="s">
-        <v>18</v>
-      </c>
-      <c r="M98" t="s">
-        <v>19</v>
-      </c>
-      <c r="N98" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q98">
-        <v>3243</v>
-      </c>
-      <c r="R98">
-        <v>0</v>
-      </c>
-      <c r="U98" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B99" t="s">
-        <v>82</v>
-      </c>
-      <c r="C99" t="s">
-        <v>124</v>
-      </c>
-      <c r="D99" t="s">
-        <v>172</v>
-      </c>
-      <c r="E99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99">
-        <v>2309018</v>
-      </c>
-      <c r="G99" t="s">
-        <v>95</v>
-      </c>
-      <c r="H99" t="s">
-        <v>196</v>
-      </c>
-      <c r="I99">
-        <v>33.129363859999998</v>
-      </c>
-      <c r="J99">
-        <v>44.3585688</v>
-      </c>
-      <c r="K99">
-        <v>3</v>
-      </c>
-      <c r="L99" t="s">
-        <v>18</v>
-      </c>
-      <c r="M99" t="s">
-        <v>19</v>
-      </c>
-      <c r="N99" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q99">
-        <v>3</v>
-      </c>
-      <c r="R99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B100" t="s">
-        <v>82</v>
-      </c>
-      <c r="C100" t="s">
-        <v>18</v>
-      </c>
-      <c r="D100" t="s">
-        <v>25</v>
-      </c>
-      <c r="E100" t="s">
-        <v>30</v>
-      </c>
-      <c r="G100" t="s">
-        <v>95</v>
-      </c>
-      <c r="H100" t="s">
-        <v>197</v>
-      </c>
-      <c r="I100">
-        <v>36.250129000000001</v>
-      </c>
-      <c r="J100">
-        <v>43.524338999999998</v>
-      </c>
-      <c r="K100">
-        <v>1519</v>
-      </c>
-      <c r="L100" t="s">
-        <v>18</v>
-      </c>
-      <c r="M100" t="s">
-        <v>19</v>
-      </c>
-      <c r="N100" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q100">
-        <v>1519</v>
-      </c>
-      <c r="R100">
-        <v>0</v>
-      </c>
-      <c r="U100" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B101" t="s">
-        <v>82</v>
-      </c>
-      <c r="C101" t="s">
-        <v>18</v>
-      </c>
-      <c r="D101" t="s">
-        <v>41</v>
-      </c>
-      <c r="E101" t="s">
-        <v>42</v>
-      </c>
-      <c r="F101">
-        <v>2704035</v>
-      </c>
-      <c r="G101" t="s">
-        <v>95</v>
-      </c>
-      <c r="H101" t="s">
-        <v>199</v>
-      </c>
-      <c r="I101">
-        <v>36.623407999999998</v>
-      </c>
-      <c r="J101">
-        <v>43.304554000000003</v>
-      </c>
-      <c r="K101">
-        <v>868</v>
-      </c>
-      <c r="L101" t="s">
-        <v>18</v>
-      </c>
-      <c r="M101" t="s">
-        <v>19</v>
-      </c>
-      <c r="N101" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q101">
-        <v>868</v>
-      </c>
-      <c r="R101">
-        <v>0</v>
-      </c>
-      <c r="U101" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B102" t="s">
-        <v>82</v>
-      </c>
-      <c r="C102" t="s">
-        <v>18</v>
-      </c>
-      <c r="D102" t="s">
-        <v>41</v>
-      </c>
-      <c r="E102" t="s">
-        <v>42</v>
-      </c>
-      <c r="F102">
-        <v>2704035</v>
-      </c>
-      <c r="G102" t="s">
-        <v>95</v>
-      </c>
-      <c r="H102" t="s">
-        <v>199</v>
-      </c>
-      <c r="I102">
-        <v>36.623407999999998</v>
-      </c>
-      <c r="J102">
-        <v>43.304554000000003</v>
-      </c>
-      <c r="K102">
-        <v>56</v>
-      </c>
-      <c r="L102" t="s">
-        <v>18</v>
-      </c>
-      <c r="M102" t="s">
-        <v>145</v>
-      </c>
-      <c r="N102" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q102">
-        <v>56</v>
-      </c>
-      <c r="R102">
-        <v>0</v>
-      </c>
-      <c r="U102" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B103" t="s">
-        <v>82</v>
-      </c>
-      <c r="C103" t="s">
-        <v>18</v>
-      </c>
-      <c r="D103" t="s">
-        <v>41</v>
-      </c>
-      <c r="E103" t="s">
-        <v>42</v>
-      </c>
-      <c r="F103">
-        <v>2704035</v>
-      </c>
-      <c r="G103" t="s">
-        <v>95</v>
-      </c>
-      <c r="H103" t="s">
-        <v>199</v>
-      </c>
-      <c r="I103">
-        <v>36.623407999999998</v>
-      </c>
-      <c r="J103">
-        <v>43.304554000000003</v>
-      </c>
-      <c r="K103">
-        <v>13</v>
-      </c>
-      <c r="L103" t="s">
-        <v>18</v>
-      </c>
-      <c r="M103" t="s">
-        <v>19</v>
-      </c>
-      <c r="N103" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q103">
-        <v>13</v>
-      </c>
-      <c r="R103">
-        <v>0</v>
-      </c>
-      <c r="U103" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" t="s">
-        <v>18</v>
-      </c>
-      <c r="D104" t="s">
-        <v>41</v>
-      </c>
-      <c r="E104" t="s">
-        <v>42</v>
-      </c>
-      <c r="F104">
-        <v>2704035</v>
-      </c>
-      <c r="G104" t="s">
-        <v>95</v>
-      </c>
-      <c r="H104" t="s">
-        <v>199</v>
-      </c>
-      <c r="I104">
-        <v>36.623407999999998</v>
-      </c>
-      <c r="J104">
-        <v>43.304554000000003</v>
-      </c>
-      <c r="K104">
-        <v>7</v>
-      </c>
-      <c r="L104" t="s">
-        <v>18</v>
-      </c>
-      <c r="M104" t="s">
-        <v>38</v>
-      </c>
-      <c r="N104" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q104">
-        <v>7</v>
-      </c>
-      <c r="R104">
-        <v>0</v>
-      </c>
-      <c r="U104" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C105" t="s">
-        <v>18</v>
-      </c>
-      <c r="D105" t="s">
-        <v>19</v>
-      </c>
-      <c r="E105" t="s">
-        <v>22</v>
-      </c>
-      <c r="F105">
-        <v>2706154</v>
-      </c>
-      <c r="G105" t="s">
-        <v>95</v>
-      </c>
-      <c r="H105" t="s">
-        <v>200</v>
-      </c>
-      <c r="I105">
-        <v>35.759045999999998</v>
-      </c>
-      <c r="J105">
-        <v>43.267291999999998</v>
-      </c>
-      <c r="K105">
-        <v>5348</v>
-      </c>
-      <c r="L105" t="s">
-        <v>18</v>
-      </c>
-      <c r="M105" t="s">
-        <v>19</v>
-      </c>
-      <c r="N105" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q105">
-        <v>5348</v>
-      </c>
-      <c r="R105">
-        <v>0</v>
-      </c>
-      <c r="U105" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B106" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" t="s">
-        <v>124</v>
-      </c>
-      <c r="D106" t="s">
-        <v>179</v>
-      </c>
-      <c r="E106" t="s">
-        <v>180</v>
-      </c>
-      <c r="F106">
-        <v>2308034</v>
-      </c>
-      <c r="G106" t="s">
-        <v>95</v>
-      </c>
-      <c r="H106" t="s">
-        <v>202</v>
-      </c>
-      <c r="I106">
-        <v>33.36313552</v>
-      </c>
-      <c r="J106">
-        <v>44.662262859999998</v>
-      </c>
-      <c r="K106">
-        <v>4</v>
-      </c>
-      <c r="L106" t="s">
-        <v>18</v>
-      </c>
-      <c r="M106" t="s">
-        <v>19</v>
-      </c>
-      <c r="N106" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q106">
-        <v>4</v>
-      </c>
-      <c r="R106">
-        <v>0</v>
-      </c>
-      <c r="U106" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B107" t="s">
-        <v>82</v>
-      </c>
-      <c r="C107" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" t="s">
-        <v>41</v>
-      </c>
-      <c r="E107" t="s">
-        <v>42</v>
-      </c>
-      <c r="F107">
-        <v>2704034</v>
-      </c>
-      <c r="G107" t="s">
-        <v>95</v>
-      </c>
-      <c r="H107" t="s">
-        <v>170</v>
-      </c>
-      <c r="I107">
-        <v>36.618779000000004</v>
-      </c>
-      <c r="J107">
-        <v>43.305425999999997</v>
-      </c>
-      <c r="K107">
-        <v>40</v>
-      </c>
-      <c r="L107" t="s">
-        <v>18</v>
-      </c>
-      <c r="M107" t="s">
-        <v>145</v>
-      </c>
-      <c r="N107" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q107">
-        <v>40</v>
-      </c>
-      <c r="R107">
-        <v>0</v>
-      </c>
-      <c r="U107" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B108" t="s">
-        <v>82</v>
-      </c>
-      <c r="C108" t="s">
-        <v>101</v>
-      </c>
-      <c r="D108" t="s">
-        <v>163</v>
-      </c>
-      <c r="E108" t="s">
-        <v>204</v>
-      </c>
-      <c r="F108">
-        <v>2108047</v>
-      </c>
-      <c r="G108" t="s">
-        <v>95</v>
-      </c>
-      <c r="H108" t="s">
-        <v>205</v>
-      </c>
-      <c r="I108">
-        <v>33.340912000000003</v>
-      </c>
-      <c r="J108">
-        <v>42.785190999999998</v>
-      </c>
-      <c r="K108">
-        <v>3</v>
-      </c>
-      <c r="L108" t="s">
-        <v>18</v>
-      </c>
-      <c r="M108" t="s">
-        <v>19</v>
-      </c>
-      <c r="N108" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q108">
-        <v>3</v>
-      </c>
-      <c r="R108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B109" t="s">
-        <v>82</v>
-      </c>
-      <c r="C109" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109" t="s">
-        <v>53</v>
-      </c>
-      <c r="G109" t="s">
-        <v>95</v>
-      </c>
-      <c r="H109" t="s">
-        <v>206</v>
-      </c>
-      <c r="I109">
-        <v>36.1616</v>
-      </c>
-      <c r="J109">
-        <v>43.231499999999997</v>
-      </c>
-      <c r="K109">
-        <v>4550</v>
-      </c>
-      <c r="L109" t="s">
-        <v>18</v>
-      </c>
-      <c r="M109" t="s">
-        <v>19</v>
-      </c>
-      <c r="N109" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q109">
-        <v>4550</v>
-      </c>
-      <c r="R109">
-        <v>0</v>
-      </c>
-      <c r="U109" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B110" t="s">
-        <v>82</v>
-      </c>
-      <c r="C110" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" t="s">
-        <v>25</v>
-      </c>
-      <c r="E110" t="s">
-        <v>30</v>
-      </c>
-      <c r="G110" t="s">
-        <v>95</v>
-      </c>
-      <c r="H110" t="s">
-        <v>208</v>
-      </c>
-      <c r="I110">
-        <v>36.308950000000003</v>
-      </c>
-      <c r="J110">
-        <v>43.526985000000003</v>
-      </c>
-      <c r="K110">
-        <v>1080</v>
-      </c>
-      <c r="L110" t="s">
-        <v>18</v>
-      </c>
-      <c r="M110" t="s">
-        <v>19</v>
-      </c>
-      <c r="N110" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q110">
-        <v>1080</v>
-      </c>
-      <c r="R110">
-        <v>0</v>
-      </c>
-      <c r="U110" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B111" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" t="s">
-        <v>25</v>
-      </c>
-      <c r="E111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>95</v>
-      </c>
-      <c r="H111" t="s">
-        <v>210</v>
-      </c>
-      <c r="I111">
-        <v>36.158603999999997</v>
-      </c>
-      <c r="J111">
-        <v>43.328099999999999</v>
-      </c>
-      <c r="K111">
-        <v>1861</v>
-      </c>
-      <c r="L111" t="s">
-        <v>18</v>
-      </c>
-      <c r="M111" t="s">
-        <v>19</v>
-      </c>
-      <c r="N111" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q111">
-        <v>1861</v>
-      </c>
-      <c r="R111">
-        <v>0</v>
-      </c>
-      <c r="U111" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B112" t="s">
-        <v>82</v>
-      </c>
-      <c r="C112" t="s">
-        <v>18</v>
-      </c>
-      <c r="D112" t="s">
-        <v>25</v>
-      </c>
-      <c r="E112" t="s">
-        <v>26</v>
-      </c>
-      <c r="G112" t="s">
-        <v>95</v>
-      </c>
-      <c r="H112" t="s">
-        <v>212</v>
-      </c>
-      <c r="I112">
-        <v>36.160082000000003</v>
-      </c>
-      <c r="J112">
-        <v>43.328229999999998</v>
-      </c>
-      <c r="K112">
-        <v>3917</v>
-      </c>
-      <c r="L112" t="s">
-        <v>18</v>
-      </c>
-      <c r="M112" t="s">
-        <v>213</v>
-      </c>
-      <c r="N112" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q112">
-        <v>3917</v>
-      </c>
-      <c r="R112">
-        <v>0</v>
-      </c>
-      <c r="U112" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="113" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B113" t="s">
-        <v>82</v>
-      </c>
-      <c r="C113" t="s">
-        <v>18</v>
-      </c>
-      <c r="D113" t="s">
-        <v>19</v>
-      </c>
-      <c r="E113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s">
-        <v>95</v>
-      </c>
-      <c r="H113" t="s">
-        <v>216</v>
-      </c>
-      <c r="I113">
-        <v>35.760978000000001</v>
-      </c>
-      <c r="J113">
-        <v>43.267733</v>
-      </c>
-      <c r="K113">
-        <v>3324</v>
-      </c>
-      <c r="L113" t="s">
-        <v>18</v>
-      </c>
-      <c r="M113" t="s">
-        <v>213</v>
-      </c>
-      <c r="N113" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q113">
-        <v>3324</v>
-      </c>
-      <c r="R113">
-        <v>0</v>
-      </c>
-      <c r="U113" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="114" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B114" t="s">
-        <v>82</v>
-      </c>
-      <c r="C114" t="s">
-        <v>45</v>
-      </c>
-      <c r="D114" t="s">
-        <v>46</v>
-      </c>
-      <c r="E114" t="s">
-        <v>88</v>
-      </c>
-      <c r="F114">
-        <v>1204028</v>
-      </c>
-      <c r="G114" t="s">
-        <v>95</v>
-      </c>
-      <c r="H114" t="s">
-        <v>218</v>
-      </c>
-      <c r="I114">
-        <v>35.878900000000002</v>
-      </c>
-      <c r="J114">
-        <v>43.802999999999997</v>
-      </c>
-      <c r="K114">
-        <v>13</v>
-      </c>
-      <c r="L114" t="s">
-        <v>18</v>
-      </c>
-      <c r="M114" t="s">
-        <v>19</v>
-      </c>
-      <c r="N114" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q114">
-        <v>13</v>
-      </c>
-      <c r="R114">
-        <v>0</v>
-      </c>
-      <c r="U114" t="s">
-        <v>219</v>
-      </c>
-      <c r="V114" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
-        <v>42915</v>
-      </c>
-      <c r="B115" t="s">
-        <v>82</v>
-      </c>
-      <c r="C115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D115" t="s">
-        <v>45</v>
-      </c>
-      <c r="E115" t="s">
-        <v>221</v>
-      </c>
-      <c r="F115">
-        <v>1202011</v>
-      </c>
-      <c r="G115" t="s">
-        <v>95</v>
-      </c>
-      <c r="H115" t="s">
-        <v>222</v>
-      </c>
-      <c r="I115">
-        <v>36.294339999999998</v>
-      </c>
-      <c r="J115">
-        <v>43.991990000000001</v>
-      </c>
-      <c r="K115">
-        <v>2</v>
-      </c>
-      <c r="L115" t="s">
-        <v>18</v>
-      </c>
-      <c r="M115" t="s">
-        <v>19</v>
-      </c>
-      <c r="N115" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q115">
-        <v>2</v>
-      </c>
-      <c r="R115">
-        <v>0</v>
-      </c>
-      <c r="U115" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="116" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M44" t="str">
+        <f>CONCATENATE("https://www.google.com/maps/?q=",I44,",",J44)</f>
+        <v>https://www.google.com/maps/?q=36.49031,43.50769</v>
+      </c>
+      <c r="N44" t="str">
+        <f>CONCATENATE("https://www.bing.com/maps/?q=",I44,",",J44)</f>
+        <v>https://www.bing.com/maps/?q=36.49031,43.50769</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="64" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
     </row>
-    <row r="117" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
     </row>
-    <row r="118" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
     </row>
-    <row r="119" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
     </row>
-    <row r="120" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
     </row>
-    <row r="121" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
     </row>
-    <row r="122" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
     </row>
-    <row r="123" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
     </row>
-    <row r="124" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
     </row>
-    <row r="125" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
     </row>
-    <row r="127" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
     </row>
-    <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
     </row>
     <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7370,221 +3342,15 @@
     <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="3"/>
-    </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="3"/>
-    </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="3"/>
-    </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="3"/>
-    </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="3"/>
-    </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="3"/>
-    </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="3"/>
-    </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="3"/>
-    </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="3"/>
-    </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="3"/>
-    </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="3"/>
-    </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="3"/>
-    </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="3"/>
-    </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="3"/>
-    </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="3"/>
-    </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="3"/>
-    </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="3"/>
-    </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
-    </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
-    </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
-    </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
-    </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
-    </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
-    </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-    </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
-    </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
-    </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
-    </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-    </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-    </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
-    </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
-    </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-    </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-    </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-    </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
-    </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="3"/>
-    </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="3"/>
-    </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="3"/>
-    </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="3"/>
-    </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="3"/>
-    </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="3"/>
-    </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="3"/>
-    </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="3"/>
-    </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="3"/>
-    </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="3"/>
-    </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="3"/>
-    </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A248" s="3"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="3"/>
-    </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="3"/>
-    </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A251" s="3"/>
-    </row>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A252" s="3"/>
-    </row>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A253" s="3"/>
-    </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A254" s="3"/>
-    </row>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A255" s="3"/>
-    </row>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A256" s="3"/>
-    </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A257" s="3"/>
-    </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A258" s="3"/>
-    </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="3"/>
-    </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A260" s="3"/>
-    </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="3"/>
-    </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A262" s="3"/>
-    </row>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="3"/>
-    </row>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="3"/>
-    </row>
-    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="3"/>
-    </row>
-    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A266" s="3"/>
-    </row>
-    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A267" s="3"/>
-    </row>
-    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="3"/>
-    </row>
-    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="3"/>
-    </row>
-    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A270" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:T115" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N199" xr:uid="{C6E1CD23-D941-A642-BC74-01B24424C89B}">
+    <sortState ref="A2:N199">
+      <sortCondition ref="H1:H199"/>
+    </sortState>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="L23" r:id="rId1" xr:uid="{B4E54216-649C-DB43-A0A3-4214078B7DA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -10098,7 +5864,7 @@
         <v>2703018</v>
       </c>
       <c r="F40" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G40">
         <v>36.033499999999997</v>
@@ -10139,7 +5905,7 @@
         <v>2703022</v>
       </c>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G41">
         <v>36.013193999999999</v>
@@ -10180,7 +5946,7 @@
         <v>2703022</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G42">
         <v>36.013193999999999</v>
@@ -10221,7 +5987,7 @@
         <v>2706006</v>
       </c>
       <c r="F43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G43">
         <v>36.404899999999998</v>
@@ -10262,7 +6028,7 @@
         <v>2706010</v>
       </c>
       <c r="F44" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G44">
         <v>36.392499999999998</v>
@@ -10303,7 +6069,7 @@
         <v>2706013</v>
       </c>
       <c r="F45" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G45">
         <v>36.387934000000001</v>
@@ -10344,7 +6110,7 @@
         <v>2706015</v>
       </c>
       <c r="F46" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G46">
         <v>36.3934</v>
@@ -10385,7 +6151,7 @@
         <v>2706017</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G47">
         <v>36.348815999999999</v>
@@ -10426,7 +6192,7 @@
         <v>2706018</v>
       </c>
       <c r="F48" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G48">
         <v>36.397115999999997</v>
@@ -10467,7 +6233,7 @@
         <v>2706028</v>
       </c>
       <c r="F49" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G49">
         <v>36.396299999999997</v>
@@ -10508,7 +6274,7 @@
         <v>2706041</v>
       </c>
       <c r="F50" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G50">
         <v>36.402900000000002</v>
@@ -10549,7 +6315,7 @@
         <v>2706043</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G51">
         <v>36.325499999999998</v>
@@ -10590,7 +6356,7 @@
         <v>2706047</v>
       </c>
       <c r="F52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="G52">
         <v>36.363736000000003</v>
@@ -10631,7 +6397,7 @@
         <v>2706050</v>
       </c>
       <c r="F53" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G53">
         <v>36.385599999999997</v>
@@ -10672,7 +6438,7 @@
         <v>2706051</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G54">
         <v>36.366667</v>
@@ -10713,7 +6479,7 @@
         <v>2706054</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G55">
         <v>36.3215</v>
@@ -10754,7 +6520,7 @@
         <v>2706056</v>
       </c>
       <c r="F56" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G56">
         <v>36.487084000000003</v>
@@ -11041,7 +6807,7 @@
         <v>2706067</v>
       </c>
       <c r="F63" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G63">
         <v>36.4788</v>
@@ -11082,7 +6848,7 @@
         <v>2706067</v>
       </c>
       <c r="F64" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G64">
         <v>36.4788</v>
@@ -11123,7 +6889,7 @@
         <v>2706071</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G65">
         <v>36.461762</v>
@@ -11164,7 +6930,7 @@
         <v>2706071</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G66">
         <v>36.461762</v>
@@ -11205,7 +6971,7 @@
         <v>2706071</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G67">
         <v>36.461762</v>
@@ -11246,7 +7012,7 @@
         <v>2706087</v>
       </c>
       <c r="F68" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="G68">
         <v>36.167099999999998</v>
@@ -11287,7 +7053,7 @@
         <v>2706090</v>
       </c>
       <c r="F69" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G69">
         <v>35.797600000000003</v>
@@ -11331,7 +7097,7 @@
         <v>2706091</v>
       </c>
       <c r="F70" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G70">
         <v>36.346417000000002</v>
@@ -11372,7 +7138,7 @@
         <v>2706093</v>
       </c>
       <c r="F71" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="G71">
         <v>36.353959000000003</v>
@@ -11413,7 +7179,7 @@
         <v>2706095</v>
       </c>
       <c r="F72" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G72">
         <v>36.376466000000001</v>
@@ -11454,7 +7220,7 @@
         <v>2706100</v>
       </c>
       <c r="F73" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G73">
         <v>35.992576</v>
@@ -11495,7 +7261,7 @@
         <v>2706100</v>
       </c>
       <c r="F74" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G74">
         <v>35.992576</v>
@@ -11536,7 +7302,7 @@
         <v>2706117</v>
       </c>
       <c r="F75" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G75">
         <v>35.943519000000002</v>
@@ -11554,7 +7320,7 @@
         <v>45</v>
       </c>
       <c r="L75" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M75">
         <v>3</v>
@@ -11577,7 +7343,7 @@
         <v>2706117</v>
       </c>
       <c r="F76" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G76">
         <v>35.943519000000002</v>
@@ -11589,13 +7355,13 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="K76" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L76" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="M76">
         <v>2</v>
@@ -11618,7 +7384,7 @@
         <v>2706117</v>
       </c>
       <c r="F77" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G77">
         <v>35.943519000000002</v>
@@ -11659,7 +7425,7 @@
         <v>2706124</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G78">
         <v>36.491095999999999</v>
@@ -11700,7 +7466,7 @@
         <v>2706125</v>
       </c>
       <c r="F79" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G79">
         <v>36.469630000000002</v>
@@ -11741,7 +7507,7 @@
         <v>2706125</v>
       </c>
       <c r="F80" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G80">
         <v>36.469630000000002</v>
@@ -11782,7 +7548,7 @@
         <v>2706127</v>
       </c>
       <c r="F81" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G81">
         <v>36.411999999999999</v>
@@ -11823,7 +7589,7 @@
         <v>2706156</v>
       </c>
       <c r="F82" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="G82">
         <v>36.238390000000003</v>
@@ -11864,7 +7630,7 @@
         <v>2706157</v>
       </c>
       <c r="F83" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="G83">
         <v>36.230620000000002</v>
@@ -11905,7 +7671,7 @@
         <v>2706158</v>
       </c>
       <c r="F84" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G84">
         <v>36.152119999999996</v>
@@ -11946,7 +7712,7 @@
         <v>2706159</v>
       </c>
       <c r="F85" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G85">
         <v>36.189129999999999</v>
@@ -11987,7 +7753,7 @@
         <v>2709003</v>
       </c>
       <c r="F86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="G86">
         <v>36.446542000000001</v>
@@ -12028,7 +7794,7 @@
         <v>2709010</v>
       </c>
       <c r="F87" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G87">
         <v>36.430374999999998</v>
@@ -12069,7 +7835,7 @@
         <v>2709010</v>
       </c>
       <c r="F88" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="G88">
         <v>36.430374999999998</v>
